--- a/backend/data/Stock/EPR_S01_Stock.xlsx
+++ b/backend/data/Stock/EPR_S01_Stock.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:S125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,984 +422,7364 @@
         <v>ART_SFA_L</v>
       </c>
       <c r="G1" t="str">
-        <v>ART_FAM_L</v>
+        <v>ART_UNV_L</v>
       </c>
       <c r="H1" t="str">
-        <v>ART_UNV_L</v>
+        <v>CAT_RFF</v>
       </c>
       <c r="I1" t="str">
-        <v>CAT_RFF</v>
+        <v>CAT_DSF</v>
       </c>
       <c r="J1" t="str">
-        <v>CAT_DSF</v>
+        <v>CAT_PUA</v>
       </c>
       <c r="K1" t="str">
-        <v>CAT_PUA</v>
+        <v>CAT_COL</v>
       </c>
       <c r="L1" t="str">
-        <v>CAT_COL</v>
+        <v>CAT_CND</v>
       </c>
       <c r="M1" t="str">
-        <v>CAT_CND</v>
+        <v>CAT_MIN</v>
       </c>
       <c r="N1" t="str">
-        <v>CAT_MIN</v>
+        <v>CAT_VOL</v>
       </c>
       <c r="O1" t="str">
-        <v>CAT_VOL</v>
+        <v>CAT_POI</v>
       </c>
       <c r="P1" t="str">
-        <v>CAT_POI</v>
+        <v>S01_QTE</v>
       </c>
       <c r="Q1" t="str">
-        <v>S01_QTE</v>
+        <v>ART_PAL</v>
       </c>
       <c r="R1" t="str">
-        <v>ART_PAL</v>
+        <v>FOU_NOM</v>
       </c>
       <c r="S1" t="str">
-        <v>FOU_NOM</v>
-      </c>
-      <c r="T1" t="str">
         <v>ART_LOC</v>
-      </c>
-      <c r="U1" t="str">
-        <v>NOM_FOU</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>LIL98436</v>
+        <v>LEG081940</v>
       </c>
       <c r="B2" t="str">
-        <v>8056534754133</v>
+        <v>3245060819408</v>
       </c>
       <c r="C2" t="str">
-        <v>SACCHETTO LED-CAV175-F X      ALIMEN.</v>
+        <v>BATIBOX BETON SIMPLE 1P P.58MM</v>
       </c>
       <c r="D2" t="str">
-        <v>ECLAIRAGE</v>
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
       </c>
       <c r="E2" t="str">
-        <v>D0</v>
+        <v>B0</v>
       </c>
       <c r="F2" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>APPAREILLAGES ELECTRIQUE</v>
       </c>
       <c r="G2" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H2" t="str">
-        <v>UNITE</v>
+        <v>081940</v>
       </c>
       <c r="I2" t="str">
-        <v>98436</v>
-      </c>
-      <c r="J2" t="str">
-        <v>SACCHETTO LED-CAV175-F X</v>
+        <v>BATIBOX BETON SIMPLE 1P P.58MM</v>
+      </c>
+      <c r="J2">
+        <v>0.5198</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.0324</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0.009</v>
+        <v>1.723</v>
+      </c>
+      <c r="P2" t="str">
+        <v>1200</v>
       </c>
       <c r="Q2" t="str">
-        <v>33</v>
+        <v>PAL246</v>
       </c>
       <c r="R2" t="str">
-        <v>9742016112001</v>
+        <v>LEGRAND</v>
       </c>
       <c r="S2" t="str">
-        <v>LINEA LIGHT FRANCE</v>
-      </c>
-      <c r="T2" t="str">
-        <v>9742012010442</v>
+        <v>A15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>LIL89120</v>
+        <v>LEG089553</v>
       </c>
       <c r="B3" t="str">
-        <v>8033913536795</v>
+        <v>3245060895532</v>
       </c>
       <c r="C3" t="str">
-        <v>CONN. MULTIPLO PER STRIP RGB +SCA.</v>
+        <v>PETITE PIEUVRE/CENTRE BATIBOX</v>
       </c>
       <c r="D3" t="str">
-        <v>ECLAIRAGE</v>
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
       </c>
       <c r="E3" t="str">
-        <v>D0</v>
+        <v>B0</v>
       </c>
       <c r="F3" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>APPAREILLAGES ELECTRIQUE</v>
       </c>
       <c r="G3" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H3" t="str">
-        <v>UNITE</v>
+        <v>089553</v>
       </c>
       <c r="I3" t="str">
-        <v>89120</v>
-      </c>
-      <c r="J3" t="str">
-        <v>CONN. MULTIPLO PER STRIP RGB +</v>
+        <v>PETITE PIEUVRE/CENTRE BATIBOX</v>
+      </c>
+      <c r="J3">
+        <v>1.2917</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.0282</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0.006</v>
+        <v>1.589</v>
+      </c>
+      <c r="P3" t="str">
+        <v>80</v>
       </c>
       <c r="Q3" t="str">
-        <v>3</v>
+        <v>PAL246</v>
       </c>
       <c r="R3" t="str">
-        <v>9742016112001</v>
+        <v>LEGRAND</v>
       </c>
       <c r="S3" t="str">
-        <v>LINEA LIGHT FRANCE</v>
-      </c>
-      <c r="T3" t="str">
-        <v>9742012010442</v>
+        <v>A15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>LIL81421</v>
+        <v>LEG080052</v>
       </c>
       <c r="B4" t="str">
-        <v>8033913033256</v>
+        <v>3245060800529</v>
       </c>
       <c r="C4" t="str">
-        <v>INK TAPPO CHIUSURA PARETE/SOFF</v>
+        <v>BATIBOX CL.SECH 2POSTES P.50MM</v>
       </c>
       <c r="D4" t="str">
-        <v>ECLAIRAGE</v>
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
       </c>
       <c r="E4" t="str">
-        <v>D0</v>
+        <v>B0</v>
       </c>
       <c r="F4" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>APPAREILLAGES ELECTRIQUE</v>
       </c>
       <c r="G4" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H4" t="str">
-        <v>UNITE</v>
+        <v>080052</v>
       </c>
       <c r="I4" t="str">
-        <v>81421</v>
-      </c>
-      <c r="J4" t="str">
-        <v>INK TAPPO CHIUSURA PARETE/SOFF</v>
+        <v>BATIBOX CL.SECH 2POSTES P.50MM</v>
+      </c>
+      <c r="J4">
+        <v>2.9546</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2700</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.0209</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0.01</v>
+        <v>2.139</v>
+      </c>
+      <c r="P4" t="str">
+        <v>30</v>
       </c>
       <c r="Q4" t="str">
-        <v>9</v>
+        <v>PAL246</v>
       </c>
       <c r="R4" t="str">
-        <v>9742016112001</v>
+        <v>LEGRAND</v>
       </c>
       <c r="S4" t="str">
-        <v>LINEA LIGHT FRANCE</v>
-      </c>
-      <c r="T4" t="str">
-        <v>9742012010442</v>
+        <v>A15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>LIL84349</v>
+        <v>LEG080126</v>
       </c>
       <c r="B5" t="str">
-        <v>8020806032755</v>
+        <v>3245060801267</v>
       </c>
       <c r="C5" t="str">
-        <v>CONTROCAS.X LED D.30X42       FO.21,5 PVC</v>
+        <v>BATIBOX MULTI-MAT 2X6/8MODULES</v>
       </c>
       <c r="D5" t="str">
-        <v>ECLAIRAGE</v>
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
       </c>
       <c r="E5" t="str">
-        <v>D0</v>
+        <v>B0</v>
       </c>
       <c r="F5" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>APPAREILLAGES ELECTRIQUE</v>
       </c>
       <c r="G5" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H5" t="str">
-        <v>UNITE</v>
+        <v>080126</v>
       </c>
       <c r="I5" t="str">
-        <v>84349</v>
-      </c>
-      <c r="J5" t="str">
-        <v>CONTROCAS.X LED D.30X42</v>
+        <v>BATIBOX MULTI-MAT 2X6/8MODULES</v>
+      </c>
+      <c r="J5">
+        <v>12.8388</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.0282</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0.009</v>
+        <v>2.74</v>
+      </c>
+      <c r="P5" t="str">
+        <v>10</v>
       </c>
       <c r="Q5" t="str">
-        <v>5</v>
+        <v>PAL246</v>
       </c>
       <c r="R5" t="str">
-        <v>9742016112001</v>
+        <v>LEGRAND</v>
       </c>
       <c r="S5" t="str">
-        <v>LINEA LIGHT FRANCE</v>
-      </c>
-      <c r="T5" t="str">
-        <v>9742012010442</v>
+        <v>A15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>LIL92376W00</v>
+        <v>LEG081972</v>
       </c>
       <c r="B6" t="str">
-        <v>8056534955325</v>
+        <v>3245060819729</v>
       </c>
       <c r="C6" t="str">
-        <v>WOOFER BIG 2 25W 84L ON/OF    CRI80 BG</v>
+        <v>COUVERCL POSE OBTURAT.BATIBOX</v>
       </c>
       <c r="D6" t="str">
-        <v>ECLAIRAGE</v>
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
       </c>
       <c r="E6" t="str">
-        <v>D0</v>
+        <v>B0</v>
       </c>
       <c r="F6" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>APPAREILLAGES ELECTRIQUE</v>
       </c>
       <c r="G6" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H6" t="str">
-        <v>UNITE</v>
+        <v>081972</v>
       </c>
       <c r="I6" t="str">
-        <v>92376W00</v>
-      </c>
-      <c r="J6" t="str">
-        <v>WOOFER BIG 2 25W 84L ON/OF</v>
+        <v>COUVERCL POSE OBTURAT.BATIBOX</v>
+      </c>
+      <c r="J6">
+        <v>0.4967</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.0231</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0.009</v>
+        <v>2.995</v>
+      </c>
+      <c r="P6" t="str">
+        <v>200</v>
       </c>
       <c r="Q6" t="str">
-        <v>15</v>
+        <v>PAL246</v>
       </c>
       <c r="R6" t="str">
-        <v>9742016112001</v>
+        <v>LEGRAND</v>
       </c>
       <c r="S6" t="str">
-        <v>LINEA LIGHT FRANCE</v>
-      </c>
-      <c r="T6" t="str">
-        <v>9742012010442</v>
+        <v>A15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>LIL84918</v>
+        <v>LEG089551</v>
       </c>
       <c r="B7" t="str">
-        <v>8020806114154</v>
+        <v>3245060895518</v>
       </c>
       <c r="C7" t="str">
-        <v>CONTROCASSA PVC D.60X87 FO.28</v>
+        <v>BATIBOX BOITE POINT CENTRE    D.100MM</v>
       </c>
       <c r="D7" t="str">
-        <v>ECLAIRAGE</v>
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
       </c>
       <c r="E7" t="str">
-        <v>D0</v>
+        <v>B0</v>
       </c>
       <c r="F7" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>APPAREILLAGES ELECTRIQUE</v>
       </c>
       <c r="G7" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H7" t="str">
-        <v>UNITE</v>
+        <v>089551</v>
       </c>
       <c r="I7" t="str">
-        <v>84918</v>
-      </c>
-      <c r="J7" t="str">
-        <v>CONTROCASSA PVC D.60X87 FO.28</v>
+        <v>BATIBOX BOITE POINT CENTRE</v>
+      </c>
+      <c r="J7">
+        <v>2.1174</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.0469</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0.012</v>
+        <v>3.42</v>
+      </c>
+      <c r="P7" t="str">
+        <v>40</v>
       </c>
       <c r="Q7" t="str">
-        <v>20</v>
+        <v>PAL246</v>
       </c>
       <c r="R7" t="str">
-        <v>9742016112001</v>
+        <v>LEGRAND</v>
       </c>
       <c r="S7" t="str">
-        <v>LINEA LIGHT FRANCE</v>
-      </c>
-      <c r="T7" t="str">
-        <v>9742012010442</v>
+        <v>A15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>LIL97353W18</v>
+        <v>LEG310185</v>
       </c>
       <c r="B8" t="str">
-        <v>8056534774766</v>
+        <v>3414971232020</v>
       </c>
       <c r="C8" t="str">
-        <v>ALCOR-1 3 1LED 1,5W 500MA INOX</v>
+        <v>ONDULEUR KEOR ASI SP 800 FR   IN-LINE/AVR/480W</v>
       </c>
       <c r="D8" t="str">
-        <v>ECLAIRAGE</v>
+        <v>PRODUCT/STOCKAGE ENERGIE</v>
       </c>
       <c r="E8" t="str">
-        <v>D0</v>
+        <v>G1</v>
       </c>
       <c r="F8" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>ONDULEURS</v>
       </c>
       <c r="G8" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H8" t="str">
-        <v>UNITE</v>
+        <v>310185</v>
       </c>
       <c r="I8" t="str">
-        <v>97353W18</v>
-      </c>
-      <c r="J8" t="str">
-        <v>ALCOR-1 3 1LED 1,5W 500MA INOX</v>
+        <v>ONDULEUR KEOR ASI SP 800 FR</v>
+      </c>
+      <c r="J8">
+        <v>61.3231</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.0164</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0.023</v>
+        <v>6.449</v>
+      </c>
+      <c r="P8" t="str">
+        <v>4</v>
       </c>
       <c r="Q8" t="str">
-        <v>10</v>
+        <v>PAL245</v>
       </c>
       <c r="R8" t="str">
-        <v>9742016112001</v>
+        <v>LEGRAND</v>
       </c>
       <c r="S8" t="str">
-        <v>LINEA LIGHT FRANCE</v>
-      </c>
-      <c r="T8" t="str">
-        <v>9742012010442</v>
+        <v>B10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>LIL89422</v>
+        <v>LEG310188</v>
       </c>
       <c r="B9" t="str">
-        <v>8033913594276</v>
+        <v>3414971232051</v>
       </c>
       <c r="C9" t="str">
-        <v>ALIM+SCA 6W 1-2 LED 500MA IP67</v>
+        <v>ONDULEUR KEOR ASI SP 1000 FR  IN-LINE/AVR/600W</v>
       </c>
       <c r="D9" t="str">
-        <v>ECLAIRAGE</v>
+        <v>PRODUCT/STOCKAGE ENERGIE</v>
       </c>
       <c r="E9" t="str">
-        <v>D0</v>
+        <v>G1</v>
       </c>
       <c r="F9" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>ONDULEURS</v>
       </c>
       <c r="G9" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H9" t="str">
-        <v>UNITE</v>
+        <v>310188</v>
       </c>
       <c r="I9" t="str">
-        <v>89422</v>
-      </c>
-      <c r="J9" t="str">
-        <v>ALIM+SCA 6W 1-2 LED 500MA IP67</v>
+        <v>ONDULEUR KEOR ASI SP 1000 FR</v>
+      </c>
+      <c r="J9">
+        <v>77.3864</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.0299</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0.003</v>
+        <v>10.316</v>
+      </c>
+      <c r="P9" t="str">
+        <v>2</v>
       </c>
       <c r="Q9" t="str">
-        <v>25</v>
+        <v>PAL245</v>
       </c>
       <c r="R9" t="str">
-        <v>9742016112001</v>
+        <v>LEGRAND</v>
       </c>
       <c r="S9" t="str">
-        <v>LINEA LIGHT FRANCE</v>
-      </c>
-      <c r="T9" t="str">
-        <v>9742012010442</v>
+        <v>B10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>CLAIV127400</v>
+        <v>LEG076565</v>
       </c>
       <c r="B10" t="str">
-        <v>8019163081285</v>
+        <v>3245060765651</v>
       </c>
       <c r="C10" t="str">
-        <v>PLAF 270-T E27 BI</v>
+        <v>MOSAIC RJ45 C6 FTP 2 M</v>
       </c>
       <c r="D10" t="str">
-        <v>ECLAIRAGE</v>
+        <v>COMMUNICATIONS ET SECURITES</v>
       </c>
       <c r="E10" t="str">
-        <v>D0</v>
+        <v>C3</v>
       </c>
       <c r="F10" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>VDI</v>
       </c>
       <c r="G10" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H10" t="str">
-        <v>UNITE</v>
+        <v>076565</v>
       </c>
       <c r="I10" t="str">
-        <v>127400</v>
-      </c>
-      <c r="J10" t="str">
-        <v>PLAF 270-T E27 BI</v>
+        <v>MOSAIC RJ45 C6 FTP 2 M</v>
+      </c>
+      <c r="J10">
+        <v>6.6082</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>4500</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.0422</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
+        <v>3.067</v>
+      </c>
+      <c r="P10" t="str">
+        <v>120</v>
       </c>
       <c r="Q10" t="str">
-        <v>43</v>
+        <v>PAL245</v>
       </c>
       <c r="R10" t="str">
-        <v>9742016112001</v>
-      </c>
-      <c r="T10" t="str">
-        <v>9742012010442</v>
-      </c>
-      <c r="U10" t="str">
-        <v>CLAREO LIGHTING</v>
+        <v>LEGRAND</v>
+      </c>
+      <c r="S10" t="str">
+        <v>B10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>LIL99195</v>
+        <v>LEG081960</v>
       </c>
       <c r="B11" t="str">
-        <v>8056534752504</v>
+        <v>3245060819606</v>
       </c>
       <c r="C11" t="str">
-        <v>ALI.IMB 4W SLIM 1-2 LED 500MA VARIS</v>
+        <v>BAGUE VIS POUR BATIBOX BETON</v>
       </c>
       <c r="D11" t="str">
-        <v>ECLAIRAGE</v>
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
       </c>
       <c r="E11" t="str">
-        <v>D0</v>
+        <v>B0</v>
       </c>
       <c r="F11" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>APPAREILLAGES ELECTRIQUE</v>
       </c>
       <c r="G11" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H11" t="str">
-        <v>UNITE</v>
+        <v>081960</v>
       </c>
       <c r="I11" t="str">
-        <v>99195</v>
-      </c>
-      <c r="J11" t="str">
-        <v>ALI.IMB 4W SLIM 1-2 LED 500MA</v>
+        <v>BAGUE VIS POUR BATIBOX BETON</v>
+      </c>
+      <c r="J11">
+        <v>0.4462</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>5800</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.0053</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
+        <v>0.282</v>
+      </c>
+      <c r="P11" t="str">
+        <v>1200</v>
       </c>
       <c r="Q11" t="str">
-        <v>10</v>
+        <v>PAL245</v>
       </c>
       <c r="R11" t="str">
-        <v>9742016112001</v>
-      </c>
-      <c r="T11" t="str">
-        <v>9742012010442</v>
-      </c>
-      <c r="U11" t="str">
-        <v>LINEA LIGHT FRANCE</v>
+        <v>LEGRAND</v>
+      </c>
+      <c r="S11" t="str">
+        <v>B10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>LIL99735</v>
+        <v>LEG080051</v>
       </c>
       <c r="B12" t="str">
-        <v>8033913149315</v>
+        <v>3245060800512</v>
       </c>
       <c r="C12" t="str">
-        <v>ALI.99735 15W 500/700/800MA   ON-OFF</v>
+        <v>BATIBOX CL.SECH 1POSTE P.50MM</v>
       </c>
       <c r="D12" t="str">
-        <v>ECLAIRAGE</v>
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
       </c>
       <c r="E12" t="str">
-        <v>D0</v>
+        <v>B0</v>
       </c>
       <c r="F12" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>APPAREILLAGES ELECTRIQUE</v>
       </c>
       <c r="G12" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H12" t="str">
-        <v>UNITE</v>
+        <v>080051</v>
       </c>
       <c r="I12" t="str">
-        <v>99735</v>
-      </c>
-      <c r="J12" t="str">
-        <v>ALI.99735 15W 500/700/800MA</v>
+        <v>BATIBOX CL.SECH 1POSTE P.50MM</v>
+      </c>
+      <c r="J12">
+        <v>0.6132</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>5700</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.0139</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="str">
+        <v>400</v>
       </c>
       <c r="Q12" t="str">
-        <v>10</v>
+        <v>PAL245</v>
       </c>
       <c r="R12" t="str">
-        <v>9742016112001</v>
-      </c>
-      <c r="T12" t="str">
-        <v>9742012010442</v>
-      </c>
-      <c r="U12" t="str">
-        <v>LINEA LIGHT FRANCE</v>
+        <v>LEGRAND</v>
+      </c>
+      <c r="S12" t="str">
+        <v>B10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>LIL98436</v>
+        <v>LEG080102</v>
       </c>
       <c r="B13" t="str">
-        <v>8056534754133</v>
+        <v>3245060801021</v>
       </c>
       <c r="C13" t="str">
-        <v>SACCHETTO LED-CAV175-F X      ALIMEN.</v>
+        <v>BATIBOX MULTI-MAT 2POSTE P40MM</v>
       </c>
       <c r="D13" t="str">
-        <v>ECLAIRAGE</v>
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
       </c>
       <c r="E13" t="str">
-        <v>D0</v>
+        <v>B0</v>
       </c>
       <c r="F13" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>APPAREILLAGES ELECTRIQUE</v>
       </c>
       <c r="G13" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H13" t="str">
-        <v>UNITE</v>
+        <v>080102</v>
       </c>
       <c r="I13" t="str">
-        <v>98436</v>
-      </c>
-      <c r="J13" t="str">
-        <v>SACCHETTO LED-CAV175-F X</v>
+        <v>BATIBOX MULTI-MAT 2POSTE P40MM</v>
+      </c>
+      <c r="J13">
+        <v>5.2156</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>1890</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.0073</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0.009</v>
+        <v>0.854</v>
+      </c>
+      <c r="P13" t="str">
+        <v>4</v>
       </c>
       <c r="Q13" t="str">
-        <v>20</v>
+        <v>PAL245</v>
       </c>
       <c r="R13" t="str">
-        <v>9742016112341</v>
+        <v>LEGRAND</v>
       </c>
       <c r="S13" t="str">
-        <v>LINEA LIGHT FRANCE</v>
-      </c>
-      <c r="T13" t="str">
-        <v>9742012010442</v>
+        <v>B10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>LIL99732</v>
+        <v>LEG080101</v>
       </c>
       <c r="B14" t="str">
-        <v>8033913149285</v>
+        <v>3245060801014</v>
       </c>
       <c r="C14" t="str">
-        <v>ALI.99732 15W 220/300/400MA   1-10V</v>
+        <v>BATIBOX MULTI-MAT 1POSTE P40MM</v>
       </c>
       <c r="D14" t="str">
-        <v>ECLAIRAGE</v>
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
       </c>
       <c r="E14" t="str">
-        <v>D0</v>
+        <v>B0</v>
       </c>
       <c r="F14" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>APPAREILLAGES ELECTRIQUE</v>
       </c>
       <c r="G14" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H14" t="str">
-        <v>UNITE</v>
+        <v>080101</v>
       </c>
       <c r="I14" t="str">
-        <v>99732</v>
-      </c>
-      <c r="J14" t="str">
-        <v>ALI.99732 15W 220/300/400MA</v>
+        <v>BATIBOX MULTI-MAT 1POSTE P40MM</v>
+      </c>
+      <c r="J14">
+        <v>1.1284</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.0053</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
+        <v>0.768</v>
+      </c>
+      <c r="P14" t="str">
+        <v>58</v>
       </c>
       <c r="Q14" t="str">
-        <v>10</v>
+        <v>PAL245</v>
       </c>
       <c r="R14" t="str">
-        <v>PAL-250</v>
-      </c>
-      <c r="T14" t="str">
-        <v>B20</v>
-      </c>
-      <c r="U14" t="str">
-        <v>LINEA LIGHT FRANCE</v>
+        <v>LEGRAND</v>
+      </c>
+      <c r="S14" t="str">
+        <v>B10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>LIL99732</v>
+        <v>LEG080126</v>
       </c>
       <c r="B15" t="str">
-        <v>8033913149285</v>
+        <v>3245060801267</v>
       </c>
       <c r="C15" t="str">
-        <v>ALI.99732 15W 220/300/400MA   1-10V</v>
+        <v>BATIBOX MULTI-MAT 2X6/8MODULES</v>
       </c>
       <c r="D15" t="str">
-        <v>ECLAIRAGE</v>
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
       </c>
       <c r="E15" t="str">
-        <v>D0</v>
+        <v>B0</v>
       </c>
       <c r="F15" t="str">
-        <v>APPAREIL D'ECLAIRAGE</v>
+        <v>APPAREILLAGES ELECTRIQUE</v>
       </c>
       <c r="G15" t="str">
-        <v>ECLAIRAGE FONCT. LED</v>
+        <v>UNITE</v>
       </c>
       <c r="H15" t="str">
-        <v>UNITE</v>
+        <v>080126</v>
       </c>
       <c r="I15" t="str">
-        <v>99732</v>
-      </c>
-      <c r="J15" t="str">
-        <v>ALI.99732 15W 220/300/400MA</v>
+        <v>BATIBOX MULTI-MAT 2X6/8MODULES</v>
+      </c>
+      <c r="J15">
+        <v>12.8388</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.0282</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
+        <v>2.74</v>
+      </c>
+      <c r="P15" t="str">
+        <v>2</v>
       </c>
       <c r="Q15" t="str">
-        <v>10</v>
+        <v>PAL245</v>
       </c>
       <c r="R15" t="str">
-        <v>PAL-201</v>
-      </c>
-      <c r="T15" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S15" t="str">
         <v>B10</v>
-      </c>
-      <c r="U15" t="str">
-        <v>LINEA LIGHT FRANCE</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
+        <v>LEG080032</v>
+      </c>
+      <c r="B16" t="str">
+        <v>3414970583567</v>
+      </c>
+      <c r="C16" t="str">
+        <v>ENERGY 2PD67MM 50MM</v>
+      </c>
+      <c r="D16" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E16" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F16" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G16" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H16" t="str">
+        <v>080032</v>
+      </c>
+      <c r="I16" t="str">
+        <v>ENERGY 2PD67MM 50MM</v>
+      </c>
+      <c r="J16">
+        <v>5.3284</v>
+      </c>
+      <c r="K16">
+        <v>30</v>
+      </c>
+      <c r="L16">
+        <v>2700</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>0.0209</v>
+      </c>
+      <c r="O16">
+        <v>2.235</v>
+      </c>
+      <c r="P16" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>PAL245</v>
+      </c>
+      <c r="R16" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S16" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>LEG080052</v>
+      </c>
+      <c r="B17" t="str">
+        <v>3245060800529</v>
+      </c>
+      <c r="C17" t="str">
+        <v>BATIBOX CL.SECH 2POSTES P.50MM</v>
+      </c>
+      <c r="D17" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E17" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F17" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G17" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H17" t="str">
+        <v>080052</v>
+      </c>
+      <c r="I17" t="str">
+        <v>BATIBOX CL.SECH 2POSTES P.50MM</v>
+      </c>
+      <c r="J17">
+        <v>2.9546</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>2700</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>0.0209</v>
+      </c>
+      <c r="O17">
+        <v>2.139</v>
+      </c>
+      <c r="P17" t="str">
+        <v>20</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>PAL245</v>
+      </c>
+      <c r="R17" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S17" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>LEG089569</v>
+      </c>
+      <c r="B18" t="str">
+        <v>3245060895693</v>
+      </c>
+      <c r="C18" t="str">
+        <v>BATIBOX COUV.POSE REDUCTEUR   D.60</v>
+      </c>
+      <c r="D18" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E18" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F18" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G18" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H18" t="str">
+        <v>089569</v>
+      </c>
+      <c r="I18" t="str">
+        <v>BATIBOX COUV.POSE REDUCTEUR</v>
+      </c>
+      <c r="J18">
+        <v>1.4466</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <v>2000</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18">
+        <v>0.015</v>
+      </c>
+      <c r="O18">
+        <v>1.525</v>
+      </c>
+      <c r="P18" t="str">
+        <v>40</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>PAL245</v>
+      </c>
+      <c r="R18" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S18" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>LEG080033</v>
+      </c>
+      <c r="B19" t="str">
+        <v>3414970583598</v>
+      </c>
+      <c r="C19" t="str">
+        <v>ENERGY 3PD67MM 50MM</v>
+      </c>
+      <c r="D19" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E19" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F19" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G19" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H19" t="str">
+        <v>080033</v>
+      </c>
+      <c r="I19" t="str">
+        <v>ENERGY 3PD67MM 50MM</v>
+      </c>
+      <c r="J19">
+        <v>6.9654</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>1200</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>0.0152</v>
+      </c>
+      <c r="O19">
+        <v>1.184</v>
+      </c>
+      <c r="P19" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>PAL245</v>
+      </c>
+      <c r="R19" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S19" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>LEG080031</v>
+      </c>
+      <c r="B20" t="str">
+        <v>3245060800314</v>
+      </c>
+      <c r="C20" t="str">
+        <v>BATIBOX ENERGY 1POSTE 50MM</v>
+      </c>
+      <c r="D20" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E20" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F20" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G20" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H20" t="str">
+        <v>080031</v>
+      </c>
+      <c r="I20" t="str">
+        <v>BATIBOX ENERGY 1POSTE 50MM</v>
+      </c>
+      <c r="J20">
+        <v>1.7664</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>3000</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>0.0152</v>
+      </c>
+      <c r="O20">
+        <v>1.047</v>
+      </c>
+      <c r="P20" t="str">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>PAL245</v>
+      </c>
+      <c r="R20" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S20" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>LEG080061</v>
+      </c>
+      <c r="B21" t="str">
+        <v>3245060800611</v>
+      </c>
+      <c r="C21" t="str">
+        <v>BATIBOX CL.SECH 1POSTE P.60MM</v>
+      </c>
+      <c r="D21" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E21" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F21" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G21" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H21" t="str">
+        <v>080061</v>
+      </c>
+      <c r="I21" t="str">
+        <v>BATIBOX CL.SECH 1POSTE P.60MM</v>
+      </c>
+      <c r="J21">
+        <v>2.7508</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>1200</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>0.0093</v>
+      </c>
+      <c r="O21">
+        <v>0.789</v>
+      </c>
+      <c r="P21" t="str">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>PAL245</v>
+      </c>
+      <c r="R21" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S21" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>LEG080144</v>
+      </c>
+      <c r="B22" t="str">
+        <v>3245060801441</v>
+      </c>
+      <c r="C22" t="str">
+        <v>BATIBOX MACONN.4POSTES P.40MM</v>
+      </c>
+      <c r="D22" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E22" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F22" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G22" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H22" t="str">
+        <v>080144</v>
+      </c>
+      <c r="I22" t="str">
+        <v>BATIBOX MACONN.4POSTES P.40MM</v>
+      </c>
+      <c r="J22">
+        <v>4.9774</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>400</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>0.0077</v>
+      </c>
+      <c r="O22">
+        <v>0.994</v>
+      </c>
+      <c r="P22" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>PAL245</v>
+      </c>
+      <c r="R22" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S22" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>LEG310174</v>
+      </c>
+      <c r="B23" t="str">
+        <v>3414970826961</v>
+      </c>
+      <c r="C23" t="str">
+        <v>ONDULEUR DAKER ASI DK PLUS    6KVA</v>
+      </c>
+      <c r="D23" t="str">
+        <v>PRODUCT/STOCKAGE ENERGIE</v>
+      </c>
+      <c r="E23" t="str">
+        <v>G1</v>
+      </c>
+      <c r="F23" t="str">
+        <v>ONDULEURS</v>
+      </c>
+      <c r="G23" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H23" t="str">
+        <v>310174</v>
+      </c>
+      <c r="I23" t="str">
+        <v>ONDULEUR DAKER ASI DK PLUS</v>
+      </c>
+      <c r="J23">
+        <v>976.6224</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0.1543</v>
+      </c>
+      <c r="O23">
+        <v>59.1</v>
+      </c>
+      <c r="P23" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>PAL247</v>
+      </c>
+      <c r="R23" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S23" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>LEG310171</v>
+      </c>
+      <c r="B24" t="str">
+        <v>3414970826930</v>
+      </c>
+      <c r="C24" t="str">
+        <v>ONDULEUR DAKER ASI DK PLUS    2KVA</v>
+      </c>
+      <c r="D24" t="str">
+        <v>PRODUCT/STOCKAGE ENERGIE</v>
+      </c>
+      <c r="E24" t="str">
+        <v>G1</v>
+      </c>
+      <c r="F24" t="str">
+        <v>ONDULEURS</v>
+      </c>
+      <c r="G24" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H24" t="str">
+        <v>310171</v>
+      </c>
+      <c r="I24" t="str">
+        <v>ONDULEUR DAKER ASI DK PLUS</v>
+      </c>
+      <c r="J24">
+        <v>375.054</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0.0914</v>
+      </c>
+      <c r="O24">
+        <v>26.4</v>
+      </c>
+      <c r="P24" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>PAL247</v>
+      </c>
+      <c r="R24" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S24" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>LEG310172</v>
+      </c>
+      <c r="B25" t="str">
+        <v>3414970826947</v>
+      </c>
+      <c r="C25" t="str">
+        <v>ONDULEUR DAKER ASI DK PLUS    3KVA</v>
+      </c>
+      <c r="D25" t="str">
+        <v>PRODUCT/STOCKAGE ENERGIE</v>
+      </c>
+      <c r="E25" t="str">
+        <v>G1</v>
+      </c>
+      <c r="F25" t="str">
+        <v>ONDULEURS</v>
+      </c>
+      <c r="G25" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H25" t="str">
+        <v>310172</v>
+      </c>
+      <c r="I25" t="str">
+        <v>ONDULEUR DAKER ASI DK PLUS</v>
+      </c>
+      <c r="J25">
+        <v>485.8282</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0.0918</v>
+      </c>
+      <c r="O25">
+        <v>29.1</v>
+      </c>
+      <c r="P25" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>PAL247</v>
+      </c>
+      <c r="R25" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S25" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>LEG310170</v>
+      </c>
+      <c r="B26" t="str">
+        <v>3414970826923</v>
+      </c>
+      <c r="C26" t="str">
+        <v>ONDULEUR DAKER ASI DK PLUS    1KVA</v>
+      </c>
+      <c r="D26" t="str">
+        <v>PRODUCT/STOCKAGE ENERGIE</v>
+      </c>
+      <c r="E26" t="str">
+        <v>G1</v>
+      </c>
+      <c r="F26" t="str">
+        <v>ONDULEURS</v>
+      </c>
+      <c r="G26" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H26" t="str">
+        <v>310170</v>
+      </c>
+      <c r="I26" t="str">
+        <v>ONDULEUR DAKER ASI DK PLUS</v>
+      </c>
+      <c r="J26">
+        <v>247.7384</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0.0629</v>
+      </c>
+      <c r="O26">
+        <v>17</v>
+      </c>
+      <c r="P26" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>PAL247</v>
+      </c>
+      <c r="R26" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S26" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>LEG086027</v>
+      </c>
+      <c r="B27" t="str">
+        <v>3245060860271</v>
+      </c>
+      <c r="C27" t="str">
+        <v>OTEO ASL PRISE 2P+T 16A 250V  SAILLIE</v>
+      </c>
+      <c r="D27" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E27" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F27" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G27" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H27" t="str">
+        <v>086027</v>
+      </c>
+      <c r="I27" t="str">
+        <v>OTEO ASL PRISE 2P+T 16A 250V</v>
+      </c>
+      <c r="J27">
+        <v>4.0092</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>5400</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>0.034</v>
+      </c>
+      <c r="O27">
+        <v>7.54</v>
+      </c>
+      <c r="P27" t="str">
+        <v>700</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>PAL248</v>
+      </c>
+      <c r="R27" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S27" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>LEG086020L</v>
+      </c>
+      <c r="B28" t="str">
+        <v>3414972643184</v>
+      </c>
+      <c r="C28" t="str">
+        <v>DOUBLE INTER VV OU BP CPT BLC</v>
+      </c>
+      <c r="D28" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E28" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F28" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G28" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H28" t="str">
+        <v>086020L</v>
+      </c>
+      <c r="I28" t="str">
+        <v>DOUBLE INTER VV OU BP CPT BLC</v>
+      </c>
+      <c r="J28">
+        <v>10.1296</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>1800</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>0.034</v>
+      </c>
+      <c r="O28">
+        <v>7.58</v>
+      </c>
+      <c r="P28" t="str">
+        <v>80</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>PAL248</v>
+      </c>
+      <c r="R28" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S28" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>LEG310182</v>
+      </c>
+      <c r="B29" t="str">
+        <v>3414971231993</v>
+      </c>
+      <c r="C29" t="str">
+        <v>ONDULEUR KEOR ASI SP 600 FR</v>
+      </c>
+      <c r="D29" t="str">
+        <v>PRODUCT/STOCKAGE ENERGIE</v>
+      </c>
+      <c r="E29" t="str">
+        <v>G1</v>
+      </c>
+      <c r="F29" t="str">
+        <v>ONDULEURS</v>
+      </c>
+      <c r="G29" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H29" t="str">
+        <v>310182</v>
+      </c>
+      <c r="I29" t="str">
+        <v>ONDULEUR KEOR ASI SP 600 FR</v>
+      </c>
+      <c r="J29">
+        <v>51.3115</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>60</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0.0164</v>
+      </c>
+      <c r="O29">
+        <v>5.574</v>
+      </c>
+      <c r="P29" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>PAL248</v>
+      </c>
+      <c r="R29" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S29" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>LEG001922</v>
+      </c>
+      <c r="B30" t="str">
+        <v>3245060019228</v>
+      </c>
+      <c r="C30" t="str">
+        <v>COFFRET PLEXO3 IP65 2X12M</v>
+      </c>
+      <c r="D30" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E30" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F30" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G30" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H30" t="str">
+        <v>001922</v>
+      </c>
+      <c r="I30" t="str">
+        <v>COFFRET PLEXO3 IP65 2X12M</v>
+      </c>
+      <c r="J30">
+        <v>55.4944</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>48</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0.0286</v>
+      </c>
+      <c r="O30">
+        <v>3.725</v>
+      </c>
+      <c r="P30" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>PAL248</v>
+      </c>
+      <c r="R30" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S30" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>LEG001511</v>
+      </c>
+      <c r="B31" t="str">
+        <v>3245060015114</v>
+      </c>
+      <c r="C31" t="str">
+        <v>COFFRET.ENCAST.1RX12          PLAST.OPAQUE</v>
+      </c>
+      <c r="D31" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E31" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F31" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G31" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H31" t="str">
+        <v>001511</v>
+      </c>
+      <c r="I31" t="str">
+        <v>COFFRET.ENCAST.1RX12</v>
+      </c>
+      <c r="J31">
+        <v>39.702</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0.0177</v>
+      </c>
+      <c r="O31">
+        <v>2.168</v>
+      </c>
+      <c r="P31" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>PAL248</v>
+      </c>
+      <c r="R31" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S31" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>LEG001512</v>
+      </c>
+      <c r="B32" t="str">
+        <v>3245060015121</v>
+      </c>
+      <c r="C32" t="str">
+        <v>COFFRET.ENCAST.2RX12          PLAST.OPAQUE</v>
+      </c>
+      <c r="D32" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E32" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F32" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G32" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H32" t="str">
+        <v>001512</v>
+      </c>
+      <c r="I32" t="str">
+        <v>COFFRET.ENCAST.2RX12</v>
+      </c>
+      <c r="J32">
+        <v>50.7842</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>24</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0.0366</v>
+      </c>
+      <c r="O32">
+        <v>2.846</v>
+      </c>
+      <c r="P32" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>PAL248</v>
+      </c>
+      <c r="R32" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S32" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>LEG005101</v>
+      </c>
+      <c r="B33" t="str">
+        <v>3245060051013</v>
+      </c>
+      <c r="C33" t="str">
+        <v>KIT ENCASTREMENT MULTI USAGE</v>
+      </c>
+      <c r="D33" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E33" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F33" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G33" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H33" t="str">
+        <v>005101</v>
+      </c>
+      <c r="I33" t="str">
+        <v>KIT ENCASTREMENT MULTI USAGE</v>
+      </c>
+      <c r="J33">
+        <v>45.0174</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>72</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0.0212</v>
+      </c>
+      <c r="O33">
+        <v>2.04</v>
+      </c>
+      <c r="P33" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>PAL248</v>
+      </c>
+      <c r="R33" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S33" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>LEG001921</v>
+      </c>
+      <c r="B34" t="str">
+        <v>3245060019211</v>
+      </c>
+      <c r="C34" t="str">
+        <v>COFFRET PLEXO3 IP65 1X12M</v>
+      </c>
+      <c r="D34" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E34" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F34" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G34" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H34" t="str">
+        <v>001921</v>
+      </c>
+      <c r="I34" t="str">
+        <v>COFFRET PLEXO3 IP65 1X12M</v>
+      </c>
+      <c r="J34">
+        <v>33.6596</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>81</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0.0169</v>
+      </c>
+      <c r="O34">
+        <v>2.274</v>
+      </c>
+      <c r="P34" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>PAL248</v>
+      </c>
+      <c r="R34" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S34" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>LEG001904</v>
+      </c>
+      <c r="B35" t="str">
+        <v>3245060019044</v>
+      </c>
+      <c r="C35" t="str">
+        <v>COFFRET PLEXO3 IP65 4MOD.</v>
+      </c>
+      <c r="D35" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E35" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F35" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G35" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H35" t="str">
+        <v>001904</v>
+      </c>
+      <c r="I35" t="str">
+        <v>COFFRET PLEXO3 IP65 4MOD.</v>
+      </c>
+      <c r="J35">
+        <v>16.8074</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>420</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0.0213</v>
+      </c>
+      <c r="O35">
+        <v>3.504</v>
+      </c>
+      <c r="P35" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>PAL248</v>
+      </c>
+      <c r="R35" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S35" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>LEG031527</v>
+      </c>
+      <c r="B36" t="str">
+        <v>3414970010810</v>
+      </c>
+      <c r="C36" t="str">
+        <v>ATTACHE FIXFOR INOVAC 8MM</v>
+      </c>
+      <c r="D36" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E36" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F36" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G36" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H36" t="str">
+        <v>031527</v>
+      </c>
+      <c r="I36" t="str">
+        <v>ATTACHE FIXFOR INOVAC 8MM</v>
+      </c>
+      <c r="J36">
+        <v>0.0305</v>
+      </c>
+      <c r="K36">
+        <v>1000</v>
+      </c>
+      <c r="L36">
+        <v>5000</v>
+      </c>
+      <c r="M36">
+        <v>1000</v>
+      </c>
+      <c r="N36">
+        <v>0.005</v>
+      </c>
+      <c r="O36">
+        <v>1.363</v>
+      </c>
+      <c r="P36" t="str">
+        <v>20000</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R36" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S36" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>LEG001908</v>
+      </c>
+      <c r="B37" t="str">
+        <v>3245060019082</v>
+      </c>
+      <c r="C37" t="str">
+        <v>COFFRET PLEXO3 IP65 8 MOD</v>
+      </c>
+      <c r="D37" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E37" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F37" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G37" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H37" t="str">
+        <v>001908</v>
+      </c>
+      <c r="I37" t="str">
+        <v>COFFRET PLEXO3 IP65 8 MOD</v>
+      </c>
+      <c r="J37">
+        <v>22.5763</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>252</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0.0329</v>
+      </c>
+      <c r="O37">
+        <v>4.65</v>
+      </c>
+      <c r="P37" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R37" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S37" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>LEG001308</v>
+      </c>
+      <c r="B38" t="str">
+        <v>3245060013080</v>
+      </c>
+      <c r="C38" t="str">
+        <v>CACHE BORNE 8/9MOD.           TYP.FR.EKINOXE</v>
+      </c>
+      <c r="D38" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E38" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F38" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G38" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H38" t="str">
+        <v>001308</v>
+      </c>
+      <c r="I38" t="str">
+        <v>CACHE BORNE 8/9MOD.</v>
+      </c>
+      <c r="J38">
+        <v>6.8578</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>300</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0.0282</v>
+      </c>
+      <c r="O38">
+        <v>2.37</v>
+      </c>
+      <c r="P38" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R38" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S38" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>LEG031528</v>
+      </c>
+      <c r="B39" t="str">
+        <v>3414970010742</v>
+      </c>
+      <c r="C39" t="str">
+        <v>ATTACHE FIXFOR INOVAC 9MM</v>
+      </c>
+      <c r="D39" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E39" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F39" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G39" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H39" t="str">
+        <v>031528</v>
+      </c>
+      <c r="I39" t="str">
+        <v>ATTACHE FIXFOR INOVAC 9MM</v>
+      </c>
+      <c r="J39">
+        <v>0.0367</v>
+      </c>
+      <c r="K39">
+        <v>1000</v>
+      </c>
+      <c r="L39">
+        <v>5000</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="N39">
+        <v>0.0051</v>
+      </c>
+      <c r="O39">
+        <v>1.479</v>
+      </c>
+      <c r="P39" t="str">
+        <v>10000</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R39" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S39" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>LEG031525</v>
+      </c>
+      <c r="B40" t="str">
+        <v>3414970010780</v>
+      </c>
+      <c r="C40" t="str">
+        <v>ATTACHE FIXFOR INOVAC 6MM</v>
+      </c>
+      <c r="D40" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E40" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F40" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G40" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H40" t="str">
+        <v>031525</v>
+      </c>
+      <c r="I40" t="str">
+        <v>ATTACHE FIXFOR INOVAC 6MM</v>
+      </c>
+      <c r="J40">
+        <v>0.0271</v>
+      </c>
+      <c r="K40">
+        <v>1000</v>
+      </c>
+      <c r="L40">
+        <v>5000</v>
+      </c>
+      <c r="M40">
+        <v>1000</v>
+      </c>
+      <c r="N40">
+        <v>0.0049</v>
+      </c>
+      <c r="O40">
+        <v>1.192</v>
+      </c>
+      <c r="P40" t="str">
+        <v>10000</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R40" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S40" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>LEG031526</v>
+      </c>
+      <c r="B41" t="str">
+        <v>3414970010902</v>
+      </c>
+      <c r="C41" t="str">
+        <v>ATTACHE FIXFOR INOVAC 7MM</v>
+      </c>
+      <c r="D41" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E41" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F41" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G41" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H41" t="str">
+        <v>031526</v>
+      </c>
+      <c r="I41" t="str">
+        <v>ATTACHE FIXFOR INOVAC 7MM</v>
+      </c>
+      <c r="J41">
+        <v>0.0298</v>
+      </c>
+      <c r="K41">
+        <v>1000</v>
+      </c>
+      <c r="L41">
+        <v>5000</v>
+      </c>
+      <c r="M41">
+        <v>1000</v>
+      </c>
+      <c r="N41">
+        <v>0.0049</v>
+      </c>
+      <c r="O41">
+        <v>1.29</v>
+      </c>
+      <c r="P41" t="str">
+        <v>5000</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R41" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S41" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>LEG031955</v>
+      </c>
+      <c r="B42" t="str">
+        <v>3245060319557</v>
+      </c>
+      <c r="C42" t="str">
+        <v>COLSON EMBASE NOIRE CHEVILLE</v>
+      </c>
+      <c r="D42" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E42" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F42" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G42" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H42" t="str">
+        <v>031955</v>
+      </c>
+      <c r="I42" t="str">
+        <v>COLSON EMBASE NOIRE CHEVILLE</v>
+      </c>
+      <c r="J42">
+        <v>0.117</v>
+      </c>
+      <c r="K42">
+        <v>1000</v>
+      </c>
+      <c r="L42">
+        <v>40000</v>
+      </c>
+      <c r="M42">
+        <v>100</v>
+      </c>
+      <c r="N42">
+        <v>0.0152</v>
+      </c>
+      <c r="O42">
+        <v>2.482</v>
+      </c>
+      <c r="P42" t="str">
+        <v>2000</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R42" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S42" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>LEG031524</v>
+      </c>
+      <c r="B43" t="str">
+        <v>3414970010728</v>
+      </c>
+      <c r="C43" t="str">
+        <v>ATTACHE FIXFOR INOVAC 5MM</v>
+      </c>
+      <c r="D43" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E43" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F43" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G43" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H43" t="str">
+        <v>031524</v>
+      </c>
+      <c r="I43" t="str">
+        <v>ATTACHE FIXFOR INOVAC 5MM</v>
+      </c>
+      <c r="J43">
+        <v>0.0254</v>
+      </c>
+      <c r="K43">
+        <v>2000</v>
+      </c>
+      <c r="L43">
+        <v>8000</v>
+      </c>
+      <c r="M43">
+        <v>2000</v>
+      </c>
+      <c r="N43">
+        <v>0.0057</v>
+      </c>
+      <c r="O43">
+        <v>1.774</v>
+      </c>
+      <c r="P43" t="str">
+        <v>16000</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R43" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S43" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>LEG089537</v>
+      </c>
+      <c r="B44" t="str">
+        <v>3245060895372</v>
+      </c>
+      <c r="C44" t="str">
+        <v>BOITE BETON COUV.BLANC 305X200</v>
+      </c>
+      <c r="D44" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E44" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F44" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G44" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H44" t="str">
+        <v>089537</v>
+      </c>
+      <c r="I44" t="str">
+        <v>BOITE BETON COUV.BLANC 305X200</v>
+      </c>
+      <c r="J44">
+        <v>11.2798</v>
+      </c>
+      <c r="K44">
+        <v>25</v>
+      </c>
+      <c r="L44">
+        <v>125</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>0.0538</v>
+      </c>
+      <c r="O44">
+        <v>4.31</v>
+      </c>
+      <c r="P44" t="str">
+        <v>30</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R44" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S44" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>LEG089571</v>
+      </c>
+      <c r="B45" t="str">
+        <v>3245060895716</v>
+      </c>
+      <c r="C45" t="str">
+        <v>BATIBOX COUV.P/BOITE LUMINAIRED.110</v>
+      </c>
+      <c r="D45" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E45" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F45" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G45" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H45" t="str">
+        <v>089571</v>
+      </c>
+      <c r="I45" t="str">
+        <v>BATIBOX COUV.P/BOITE LUMINAIRE</v>
+      </c>
+      <c r="J45">
+        <v>1.1211</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45">
+        <v>1800</v>
+      </c>
+      <c r="M45">
+        <v>100</v>
+      </c>
+      <c r="N45">
+        <v>0.0384</v>
+      </c>
+      <c r="O45">
+        <v>3.93</v>
+      </c>
+      <c r="P45" t="str">
+        <v>30</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R45" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S45" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>LEG094516</v>
+      </c>
+      <c r="B46" t="str">
+        <v>3245060945169</v>
+      </c>
+      <c r="C46" t="str">
+        <v>BOITE DERIVATION 65X65 PLEXO</v>
+      </c>
+      <c r="D46" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E46" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F46" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G46" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H46" t="str">
+        <v>094516</v>
+      </c>
+      <c r="I46" t="str">
+        <v>BOITE DERIVATION 65X65 PLEXO</v>
+      </c>
+      <c r="J46">
+        <v>2.1611</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="M46">
+        <v>100</v>
+      </c>
+      <c r="N46">
+        <v>0.0017</v>
+      </c>
+      <c r="O46">
+        <v>0.284</v>
+      </c>
+      <c r="P46" t="str">
+        <v>40</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R46" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S46" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>LEG094513</v>
+      </c>
+      <c r="B47" t="str">
+        <v>3245060945138</v>
+      </c>
+      <c r="C47" t="str">
+        <v>BOITE DERIVATION D.60 PLEXO</v>
+      </c>
+      <c r="D47" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E47" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F47" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G47" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H47" t="str">
+        <v>094513</v>
+      </c>
+      <c r="I47" t="str">
+        <v>BOITE DERIVATION D.60 PLEXO</v>
+      </c>
+      <c r="J47">
+        <v>1.7087</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="N47">
+        <v>0.0012</v>
+      </c>
+      <c r="O47">
+        <v>0.2</v>
+      </c>
+      <c r="P47" t="str">
+        <v>40</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R47" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S47" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>LEG094514</v>
+      </c>
+      <c r="B48" t="str">
+        <v>3245060945145</v>
+      </c>
+      <c r="C48" t="str">
+        <v>BOITE DERIVATION D.70 PLEXO</v>
+      </c>
+      <c r="D48" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E48" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F48" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G48" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H48" t="str">
+        <v>094514</v>
+      </c>
+      <c r="I48" t="str">
+        <v>BOITE DERIVATION D.70 PLEXO</v>
+      </c>
+      <c r="J48">
+        <v>1.8127</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48">
+        <v>0.0015</v>
+      </c>
+      <c r="O48">
+        <v>0.242</v>
+      </c>
+      <c r="P48" t="str">
+        <v>40</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R48" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S48" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>LEG089277</v>
+      </c>
+      <c r="B49" t="str">
+        <v>3245060892777</v>
+      </c>
+      <c r="C49" t="str">
+        <v>BATIBOX BOITE DERIVATION      164X347X70</v>
+      </c>
+      <c r="D49" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E49" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F49" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G49" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H49" t="str">
+        <v>089277</v>
+      </c>
+      <c r="I49" t="str">
+        <v>BATIBOX BOITE DERIVATION</v>
+      </c>
+      <c r="J49">
+        <v>15.3265</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>84</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>0.0147</v>
+      </c>
+      <c r="O49">
+        <v>1.223</v>
+      </c>
+      <c r="P49" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R49" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S49" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>LEG086092</v>
+      </c>
+      <c r="B50" t="str">
+        <v>3245060860929</v>
+      </c>
+      <c r="C50" t="str">
+        <v>OTEO ASL CADRE 2 POSTES COMP. SAILLIE</v>
+      </c>
+      <c r="D50" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E50" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F50" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G50" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H50" t="str">
+        <v>086092</v>
+      </c>
+      <c r="I50" t="str">
+        <v>OTEO ASL CADRE 2 POSTES COMP.</v>
+      </c>
+      <c r="J50">
+        <v>3.8293</v>
+      </c>
+      <c r="K50">
+        <v>50</v>
+      </c>
+      <c r="L50">
+        <v>1500</v>
+      </c>
+      <c r="M50">
+        <v>10</v>
+      </c>
+      <c r="N50">
+        <v>0.0192</v>
+      </c>
+      <c r="O50">
+        <v>3.005</v>
+      </c>
+      <c r="P50" t="str">
+        <v>40</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R50" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S50" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>LEG094517</v>
+      </c>
+      <c r="B51" t="str">
+        <v>3245060945176</v>
+      </c>
+      <c r="C51" t="str">
+        <v>BOITE DERIVATION 80X80 PLEXO</v>
+      </c>
+      <c r="D51" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E51" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F51" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G51" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H51" t="str">
+        <v>094517</v>
+      </c>
+      <c r="I51" t="str">
+        <v>BOITE DERIVATION 80X80 PLEXO</v>
+      </c>
+      <c r="J51">
+        <v>2.2963</v>
+      </c>
+      <c r="K51">
+        <v>120</v>
+      </c>
+      <c r="L51">
+        <v>3000</v>
+      </c>
+      <c r="M51">
+        <v>120</v>
+      </c>
+      <c r="N51">
+        <v>0.0684</v>
+      </c>
+      <c r="O51">
+        <v>9.328</v>
+      </c>
+      <c r="P51" t="str">
+        <v>60</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R51" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S51" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>LEG094519</v>
+      </c>
+      <c r="B52" t="str">
+        <v>3245060945190</v>
+      </c>
+      <c r="C52" t="str">
+        <v>BOITE DERIVATION 100X100 PLEXO</v>
+      </c>
+      <c r="D52" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E52" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F52" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G52" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H52" t="str">
+        <v>094519</v>
+      </c>
+      <c r="I52" t="str">
+        <v>BOITE DERIVATION 100X100 PLEXO</v>
+      </c>
+      <c r="J52">
+        <v>4.4294</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52">
+        <v>0.004</v>
+      </c>
+      <c r="O52">
+        <v>0.741</v>
+      </c>
+      <c r="P52" t="str">
+        <v>20</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R52" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S52" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>LEG081972</v>
+      </c>
+      <c r="B53" t="str">
+        <v>3245060819729</v>
+      </c>
+      <c r="C53" t="str">
+        <v>COUVERCL POSE OBTURAT.BATIBOX</v>
+      </c>
+      <c r="D53" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E53" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F53" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G53" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H53" t="str">
+        <v>081972</v>
+      </c>
+      <c r="I53" t="str">
+        <v>COUVERCL POSE OBTURAT.BATIBOX</v>
+      </c>
+      <c r="J53">
+        <v>0.4967</v>
+      </c>
+      <c r="K53">
+        <v>200</v>
+      </c>
+      <c r="L53">
+        <v>6000</v>
+      </c>
+      <c r="M53">
+        <v>20</v>
+      </c>
+      <c r="N53">
+        <v>0.0231</v>
+      </c>
+      <c r="O53">
+        <v>2.995</v>
+      </c>
+      <c r="P53" t="str">
+        <v>120</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R53" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S53" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>LEG089372</v>
+      </c>
+      <c r="B54" t="str">
+        <v>3245060893729</v>
+      </c>
+      <c r="C54" t="str">
+        <v>BATIBOX BOITE                 CLOIS.SEC.DERIV.115X</v>
+      </c>
+      <c r="D54" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E54" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F54" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G54" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H54" t="str">
+        <v>089372</v>
+      </c>
+      <c r="I54" t="str">
+        <v>BATIBOX BOITE</v>
+      </c>
+      <c r="J54">
+        <v>7.5036</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>400</v>
+      </c>
+      <c r="M54">
+        <v>10</v>
+      </c>
+      <c r="N54">
+        <v>0.015</v>
+      </c>
+      <c r="O54">
+        <v>1.005</v>
+      </c>
+      <c r="P54" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R54" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S54" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>LEG081971</v>
+      </c>
+      <c r="B55" t="str">
+        <v>3245060819712</v>
+      </c>
+      <c r="C55" t="str">
+        <v>COUVERCL POSE/DISTANC.BATIBOX</v>
+      </c>
+      <c r="D55" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E55" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F55" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G55" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H55" t="str">
+        <v>081971</v>
+      </c>
+      <c r="I55" t="str">
+        <v>COUVERCL POSE/DISTANC.BATIBOX</v>
+      </c>
+      <c r="J55">
+        <v>0.5844</v>
+      </c>
+      <c r="K55">
+        <v>200</v>
+      </c>
+      <c r="L55">
+        <v>1000</v>
+      </c>
+      <c r="M55">
+        <v>20</v>
+      </c>
+      <c r="N55">
+        <v>0.0621</v>
+      </c>
+      <c r="O55">
+        <v>6.826</v>
+      </c>
+      <c r="P55" t="str">
+        <v>200</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R55" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S55" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>LEG401221</v>
+      </c>
+      <c r="B56" t="str">
+        <v>3245064012218</v>
+      </c>
+      <c r="C56" t="str">
+        <v>COFFRET DRIVIA SAILLIE 1RX18M BCA</v>
+      </c>
+      <c r="D56" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E56" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F56" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G56" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H56" t="str">
+        <v>401221</v>
+      </c>
+      <c r="I56" t="str">
+        <v>COFFRET DRIVIA SAILLIE 1RX18M</v>
+      </c>
+      <c r="J56">
+        <v>31.9821</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>100</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>0.0123</v>
+      </c>
+      <c r="O56">
+        <v>1.35</v>
+      </c>
+      <c r="P56" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R56" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S56" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>LEG401223</v>
+      </c>
+      <c r="B57" t="str">
+        <v>3245064012232</v>
+      </c>
+      <c r="C57" t="str">
+        <v>COFFRET DRIVIA SAILLIE 3RX18M BCA</v>
+      </c>
+      <c r="D57" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E57" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F57" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G57" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H57" t="str">
+        <v>401223</v>
+      </c>
+      <c r="I57" t="str">
+        <v>COFFRET DRIVIA SAILLIE 3RX18M</v>
+      </c>
+      <c r="J57">
+        <v>76.6896</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>50</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0.0241</v>
+      </c>
+      <c r="O57">
+        <v>2.421</v>
+      </c>
+      <c r="P57" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R57" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S57" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>LEG401224</v>
+      </c>
+      <c r="B58" t="str">
+        <v>3245064012249</v>
+      </c>
+      <c r="C58" t="str">
+        <v>COFFRET DRIVIA SAILLIE 4RX18M BCA</v>
+      </c>
+      <c r="D58" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E58" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F58" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G58" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H58" t="str">
+        <v>401224</v>
+      </c>
+      <c r="I58" t="str">
+        <v>COFFRET DRIVIA SAILLIE 4RX18M</v>
+      </c>
+      <c r="J58">
+        <v>89.544</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>40</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0.03</v>
+      </c>
+      <c r="O58">
+        <v>3.03</v>
+      </c>
+      <c r="P58" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>PAL249</v>
+      </c>
+      <c r="R58" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S58" t="str">
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>LEG005105</v>
+      </c>
+      <c r="B59" t="str">
+        <v>3245060051051</v>
+      </c>
+      <c r="C59" t="str">
+        <v>BAC ENCASTREMENT ISOL FAIBLE  PROF GTL COFFR 3 RANGEES +</v>
+      </c>
+      <c r="D59" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E59" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F59" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G59" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H59" t="str">
+        <v>005105</v>
+      </c>
+      <c r="I59" t="str">
+        <v>ENCASTREMENT TABLEAU 3 RANGEES</v>
+      </c>
+      <c r="J59">
+        <v>45.6123</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>44</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0.0365</v>
+      </c>
+      <c r="O59">
+        <v>2.843</v>
+      </c>
+      <c r="P59" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>PAL250</v>
+      </c>
+      <c r="R59" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S59" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>LEG005124</v>
+      </c>
+      <c r="B60" t="str">
+        <v>3245060051242</v>
+      </c>
+      <c r="C60" t="str">
+        <v>PORTE FACADE TABLEAU 2 RANGEES</v>
+      </c>
+      <c r="D60" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E60" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F60" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G60" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H60" t="str">
+        <v>005124</v>
+      </c>
+      <c r="I60" t="str">
+        <v>PORTE FACADE TABLEAU 2 RANGEES</v>
+      </c>
+      <c r="J60">
+        <v>59.7688</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>81</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0.0142</v>
+      </c>
+      <c r="O60">
+        <v>1.57</v>
+      </c>
+      <c r="P60" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>PAL250</v>
+      </c>
+      <c r="R60" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S60" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>LEG005125</v>
+      </c>
+      <c r="B61" t="str">
+        <v>3245060051259</v>
+      </c>
+      <c r="C61" t="str">
+        <v>PORTE FACADE TABLEAU 3 RANGEES</v>
+      </c>
+      <c r="D61" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E61" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F61" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G61" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H61" t="str">
+        <v>005125</v>
+      </c>
+      <c r="I61" t="str">
+        <v>PORTE FACADE TABLEAU 3 RANGEES</v>
+      </c>
+      <c r="J61">
+        <v>61.9216</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>84</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0.0169</v>
+      </c>
+      <c r="O61">
+        <v>1.772</v>
+      </c>
+      <c r="P61" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>PAL250</v>
+      </c>
+      <c r="R61" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S61" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>LEG005123</v>
+      </c>
+      <c r="B62" t="str">
+        <v>3245060051235</v>
+      </c>
+      <c r="C62" t="str">
+        <v>PORTE FACADE TABLEAU 1 RANGEE</v>
+      </c>
+      <c r="D62" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E62" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F62" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G62" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H62" t="str">
+        <v>005123</v>
+      </c>
+      <c r="I62" t="str">
+        <v>PORTE FACADE TABLEAU 1 RANGEE</v>
+      </c>
+      <c r="J62">
+        <v>55.1824</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>140</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0.011</v>
+      </c>
+      <c r="O62">
+        <v>1.367</v>
+      </c>
+      <c r="P62" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>PAL250</v>
+      </c>
+      <c r="R62" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S62" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>LEG001926</v>
+      </c>
+      <c r="B63" t="str">
+        <v>3245060019266</v>
+      </c>
+      <c r="C63" t="str">
+        <v>COFFRET PLEXO3 IP65 3X18M</v>
+      </c>
+      <c r="D63" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E63" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F63" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G63" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H63" t="str">
+        <v>001926</v>
+      </c>
+      <c r="I63" t="str">
+        <v>COFFRET PLEXO3 IP65 3X18M</v>
+      </c>
+      <c r="J63">
+        <v>209.508</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>24</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0.0533</v>
+      </c>
+      <c r="O63">
+        <v>6.218</v>
+      </c>
+      <c r="P63" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>PAL250</v>
+      </c>
+      <c r="R63" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S63" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>LEG433003</v>
+      </c>
+      <c r="B64" t="str">
+        <v>3414971980310</v>
+      </c>
+      <c r="C64" t="str">
+        <v>CHAS PRET EMP PLASTIQ 600X400</v>
+      </c>
+      <c r="D64" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E64" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F64" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G64" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H64" t="str">
+        <v>433003</v>
+      </c>
+      <c r="I64" t="str">
+        <v>CHAS PRET EMP PLASTIQ 600X400</v>
+      </c>
+      <c r="J64">
+        <v>120.27</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>32</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>0.0178</v>
+      </c>
+      <c r="O64">
+        <v>3.721</v>
+      </c>
+      <c r="P64" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>PAL250</v>
+      </c>
+      <c r="R64" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S64" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>LEG433001</v>
+      </c>
+      <c r="B65" t="str">
+        <v>3414971980297</v>
+      </c>
+      <c r="C65" t="str">
+        <v>CHASSIS POUR COFFRET 500X400</v>
+      </c>
+      <c r="D65" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E65" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F65" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G65" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H65" t="str">
+        <v>433001</v>
+      </c>
+      <c r="I65" t="str">
+        <v>CHASSIS POUR COFFRET 500X400</v>
+      </c>
+      <c r="J65">
+        <v>109.326</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>40</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0.012</v>
+      </c>
+      <c r="O65">
+        <v>3.13</v>
+      </c>
+      <c r="P65" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>PAL250</v>
+      </c>
+      <c r="R65" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S65" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>LEG020051</v>
+      </c>
+      <c r="B66" t="str">
+        <v>3245060200510</v>
+      </c>
+      <c r="C66" t="str">
+        <v>XL3 OBTURATEUR DECOUPABLE 24  MOD</v>
+      </c>
+      <c r="D66" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E66" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F66" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G66" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H66" t="str">
+        <v>020051</v>
+      </c>
+      <c r="I66" t="str">
+        <v>XL3 OBTURATEUR DECOUPABLE 24</v>
+      </c>
+      <c r="J66">
+        <v>3.9603</v>
+      </c>
+      <c r="K66">
+        <v>20</v>
+      </c>
+      <c r="L66">
+        <v>3840</v>
+      </c>
+      <c r="M66">
+        <v>20</v>
+      </c>
+      <c r="N66">
+        <v>0.0035</v>
+      </c>
+      <c r="O66">
+        <v>1.483</v>
+      </c>
+      <c r="P66" t="str">
+        <v>20</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>PAL250</v>
+      </c>
+      <c r="R66" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S66" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>LEG600335</v>
+      </c>
+      <c r="B67" t="str">
+        <v>3414971006102</v>
+      </c>
+      <c r="C67" t="str">
+        <v>DOOXIE 2P+T SURFACE BLANC</v>
+      </c>
+      <c r="D67" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E67" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F67" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G67" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H67" t="str">
+        <v>600335</v>
+      </c>
+      <c r="I67" t="str">
+        <v>DOOXIE 2P+T SURFACE BLANC</v>
+      </c>
+      <c r="J67">
+        <v>2.2058</v>
+      </c>
+      <c r="K67">
+        <v>80</v>
+      </c>
+      <c r="L67">
+        <v>4800</v>
+      </c>
+      <c r="M67">
+        <v>10</v>
+      </c>
+      <c r="N67">
+        <v>0.031</v>
+      </c>
+      <c r="O67">
+        <v>4.749</v>
+      </c>
+      <c r="P67" t="str">
+        <v>1200</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R67" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S67" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>LEG411650</v>
+      </c>
+      <c r="B68" t="str">
+        <v>3245064116503</v>
+      </c>
+      <c r="C68" t="str">
+        <v>DISJ DX3-ID 2P 63A AC 30MA TGA</v>
+      </c>
+      <c r="D68" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E68" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F68" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G68" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H68" t="str">
+        <v>411650</v>
+      </c>
+      <c r="I68" t="str">
+        <v>DISJ DX3-ID 2P 63A AC 30MA TGA</v>
+      </c>
+      <c r="J68">
+        <v>37.0448</v>
+      </c>
+      <c r="K68">
+        <v>24</v>
+      </c>
+      <c r="L68">
+        <v>1440</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>0.0117</v>
+      </c>
+      <c r="O68">
+        <v>5.488</v>
+      </c>
+      <c r="P68" t="str">
+        <v>48</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R68" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S68" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>LEG411611</v>
+      </c>
+      <c r="B69" t="str">
+        <v>3245064116114</v>
+      </c>
+      <c r="C69" t="str">
+        <v>DISJ DX3-ID 2P 40A AC 30MA TG</v>
+      </c>
+      <c r="D69" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E69" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F69" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G69" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H69" t="str">
+        <v>411611</v>
+      </c>
+      <c r="I69" t="str">
+        <v>DISJ DX3-ID 2P 40A AC 30MA TG</v>
+      </c>
+      <c r="J69">
+        <v>20.2592</v>
+      </c>
+      <c r="K69">
+        <v>24</v>
+      </c>
+      <c r="L69">
+        <v>480</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0.0117</v>
+      </c>
+      <c r="O69">
+        <v>4.548</v>
+      </c>
+      <c r="P69" t="str">
+        <v>72</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R69" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S69" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>LEG600321</v>
+      </c>
+      <c r="B70" t="str">
+        <v>3414971005891</v>
+      </c>
+      <c r="C70" t="str">
+        <v>DOOXIE PRISE 2X2P+T 1POSTE    BLANC</v>
+      </c>
+      <c r="D70" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E70" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F70" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G70" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H70" t="str">
+        <v>600321</v>
+      </c>
+      <c r="I70" t="str">
+        <v>DOOXIE PRISE 2X2P+T 1POSTE</v>
+      </c>
+      <c r="J70">
+        <v>10.8399</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>1560</v>
+      </c>
+      <c r="M70">
+        <v>10</v>
+      </c>
+      <c r="N70">
+        <v>0.0095</v>
+      </c>
+      <c r="O70">
+        <v>1.071</v>
+      </c>
+      <c r="P70" t="str">
+        <v>8</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R70" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S70" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>LEG005190</v>
+      </c>
+      <c r="B71" t="str">
+        <v>3245060051907</v>
+      </c>
+      <c r="C71" t="str">
+        <v>ACCESSOIRE FIXATION CLOIS.CREU</v>
+      </c>
+      <c r="D71" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E71" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F71" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G71" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H71" t="str">
+        <v>005190</v>
+      </c>
+      <c r="I71" t="str">
+        <v>ACCESSOIRE FIXATION CLOIS.CREU</v>
+      </c>
+      <c r="J71">
+        <v>66.006</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>60</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0.0314</v>
+      </c>
+      <c r="O71">
+        <v>1.28</v>
+      </c>
+      <c r="P71" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R71" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S71" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>LEG600352</v>
+      </c>
+      <c r="B72" t="str">
+        <v>3414971093287</v>
+      </c>
+      <c r="C72" t="str">
+        <v>DOOXIE TV RJ45 CAT6 STP BLANC</v>
+      </c>
+      <c r="D72" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E72" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F72" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G72" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H72" t="str">
+        <v>600352</v>
+      </c>
+      <c r="I72" t="str">
+        <v>DOOXIE TV RJ45 CAT6 STP BLANC</v>
+      </c>
+      <c r="J72">
+        <v>18.0633</v>
+      </c>
+      <c r="K72">
+        <v>20</v>
+      </c>
+      <c r="L72">
+        <v>240</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>0.0185</v>
+      </c>
+      <c r="O72">
+        <v>2.478</v>
+      </c>
+      <c r="P72" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R72" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S72" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>LEG600064A</v>
+      </c>
+      <c r="B73" t="str">
+        <v>3414972395328</v>
+      </c>
+      <c r="C73" t="str">
+        <v>INTER AUTO SANS NEUTRE DOOXIE</v>
+      </c>
+      <c r="D73" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E73" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F73" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G73" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H73" t="str">
+        <v>600064A</v>
+      </c>
+      <c r="I73" t="str">
+        <v>INTER AUTO SANS NEUTRE DOOXIE</v>
+      </c>
+      <c r="J73">
+        <v>50.6502</v>
+      </c>
+      <c r="K73">
+        <v>20</v>
+      </c>
+      <c r="L73">
+        <v>240</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>0.0185</v>
+      </c>
+      <c r="O73">
+        <v>2.365</v>
+      </c>
+      <c r="P73" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R73" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S73" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>LEG075669</v>
+      </c>
+      <c r="B74" t="str">
+        <v>3245060756697</v>
+      </c>
+      <c r="C74" t="str">
+        <v>JOINT CV45 GLT MOSAIC</v>
+      </c>
+      <c r="D74" t="str">
+        <v>CABLES ET CONDUITS</v>
+      </c>
+      <c r="E74" t="str">
+        <v>A2</v>
+      </c>
+      <c r="F74" t="str">
+        <v>CONDUITS ET GAINES</v>
+      </c>
+      <c r="G74" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H74" t="str">
+        <v>075669</v>
+      </c>
+      <c r="I74" t="str">
+        <v>JOINT CV45 GLT MOSAIC</v>
+      </c>
+      <c r="J74">
+        <v>1.7742</v>
+      </c>
+      <c r="K74">
+        <v>10</v>
+      </c>
+      <c r="L74">
+        <v>100</v>
+      </c>
+      <c r="M74">
+        <v>10</v>
+      </c>
+      <c r="N74">
+        <v>0.0041</v>
+      </c>
+      <c r="O74">
+        <v>0.145</v>
+      </c>
+      <c r="P74" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R74" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S74" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>LEG078837L</v>
+      </c>
+      <c r="B75" t="str">
+        <v>3414971578265</v>
+      </c>
+      <c r="C75" t="str">
+        <v>MOSAIC PLAQUE 2X8M BLANC</v>
+      </c>
+      <c r="D75" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E75" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F75" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G75" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H75" t="str">
+        <v>078837L</v>
+      </c>
+      <c r="I75" t="str">
+        <v>MOSAIC PLAQUE 2X8M BLANC</v>
+      </c>
+      <c r="J75">
+        <v>21.0142</v>
+      </c>
+      <c r="K75">
+        <v>50</v>
+      </c>
+      <c r="L75">
+        <v>750</v>
+      </c>
+      <c r="M75">
+        <v>5</v>
+      </c>
+      <c r="N75">
+        <v>0.0478</v>
+      </c>
+      <c r="O75">
+        <v>5.93</v>
+      </c>
+      <c r="P75" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R75" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S75" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>LEG077123L</v>
+      </c>
+      <c r="B76" t="str">
+        <v>3414971576179</v>
+      </c>
+      <c r="C76" t="str">
+        <v>MOSAIC 3X2P+T LINK FB DET CLIPSFC</v>
+      </c>
+      <c r="D76" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E76" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F76" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G76" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H76" t="str">
+        <v>077123L</v>
+      </c>
+      <c r="I76" t="str">
+        <v>MOSAIC 3X2P+T LINK FB DET CLIP</v>
+      </c>
+      <c r="J76">
+        <v>15.7487</v>
+      </c>
+      <c r="K76">
+        <v>50</v>
+      </c>
+      <c r="L76">
+        <v>500</v>
+      </c>
+      <c r="M76">
+        <v>10</v>
+      </c>
+      <c r="N76">
+        <v>0.0324</v>
+      </c>
+      <c r="O76">
+        <v>7.418</v>
+      </c>
+      <c r="P76" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R76" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S76" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>LEG078832L</v>
+      </c>
+      <c r="B77" t="str">
+        <v>3414971578203</v>
+      </c>
+      <c r="C77" t="str">
+        <v>MOSAIC PLAQUE 2X3X2M BLANC</v>
+      </c>
+      <c r="D77" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E77" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F77" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G77" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H77" t="str">
+        <v>078832L</v>
+      </c>
+      <c r="I77" t="str">
+        <v>MOSAIC PLAQUE 2X3X2M BLANC</v>
+      </c>
+      <c r="J77">
+        <v>22.743</v>
+      </c>
+      <c r="K77">
+        <v>50</v>
+      </c>
+      <c r="L77">
+        <v>750</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77">
+        <v>0.0478</v>
+      </c>
+      <c r="O77">
+        <v>6.705</v>
+      </c>
+      <c r="P77" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R77" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S77" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>LEG078738</v>
+      </c>
+      <c r="B78" t="str">
+        <v>3245060787387</v>
+      </c>
+      <c r="C78" t="str">
+        <v>PRMOSAIC TEL TE FRANCE</v>
+      </c>
+      <c r="D78" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E78" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F78" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G78" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H78" t="str">
+        <v>078738</v>
+      </c>
+      <c r="I78" t="str">
+        <v>PRMOSAIC TEL TE FRANCE</v>
+      </c>
+      <c r="J78">
+        <v>9.5181</v>
+      </c>
+      <c r="K78">
+        <v>100</v>
+      </c>
+      <c r="L78">
+        <v>1500</v>
+      </c>
+      <c r="M78">
+        <v>10</v>
+      </c>
+      <c r="N78">
+        <v>0.0422</v>
+      </c>
+      <c r="O78">
+        <v>4.309</v>
+      </c>
+      <c r="P78" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R78" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S78" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>LEG076573</v>
+      </c>
+      <c r="B79" t="str">
+        <v>3245060765736</v>
+      </c>
+      <c r="C79" t="str">
+        <v>MOSAIC RJ45 C6A STP 1 M</v>
+      </c>
+      <c r="D79" t="str">
+        <v>COMMUNICATIONS ET SECURITES</v>
+      </c>
+      <c r="E79" t="str">
+        <v>C3</v>
+      </c>
+      <c r="F79" t="str">
+        <v>VDI</v>
+      </c>
+      <c r="G79" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H79" t="str">
+        <v>076573</v>
+      </c>
+      <c r="I79" t="str">
+        <v>MOSAIC RJ45 C6A STP 1 M</v>
+      </c>
+      <c r="J79">
+        <v>10.6267</v>
+      </c>
+      <c r="K79">
+        <v>100</v>
+      </c>
+      <c r="L79">
+        <v>1500</v>
+      </c>
+      <c r="M79">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>0.0422</v>
+      </c>
+      <c r="O79">
+        <v>4.929</v>
+      </c>
+      <c r="P79" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R79" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S79" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>LEG077001L</v>
+      </c>
+      <c r="B80" t="str">
+        <v>3414971575103</v>
+      </c>
+      <c r="C80" t="str">
+        <v>MOSAIC VV EASYLED 10AX 1M     BLANC</v>
+      </c>
+      <c r="D80" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E80" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F80" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G80" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H80" t="str">
+        <v>077001L</v>
+      </c>
+      <c r="I80" t="str">
+        <v>MOSAIC VV EASYLED 10AX 1M</v>
+      </c>
+      <c r="J80">
+        <v>4.4346</v>
+      </c>
+      <c r="K80">
+        <v>120</v>
+      </c>
+      <c r="L80">
+        <v>6480</v>
+      </c>
+      <c r="M80">
+        <v>10</v>
+      </c>
+      <c r="N80">
+        <v>0.0097</v>
+      </c>
+      <c r="O80">
+        <v>3.12</v>
+      </c>
+      <c r="P80" t="str">
+        <v>24</v>
+      </c>
+      <c r="Q80" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R80" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S80" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>LEG078782</v>
+      </c>
+      <c r="B81" t="str">
+        <v>3245060787820</v>
+      </c>
+      <c r="C81" t="str">
+        <v>PRMOSAIC TV SIMPLE MALE</v>
+      </c>
+      <c r="D81" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E81" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F81" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G81" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H81" t="str">
+        <v>078782</v>
+      </c>
+      <c r="I81" t="str">
+        <v>PRMOSAIC TV SIMPLE MALE</v>
+      </c>
+      <c r="J81">
+        <v>6.759</v>
+      </c>
+      <c r="K81">
+        <v>100</v>
+      </c>
+      <c r="L81">
+        <v>2500</v>
+      </c>
+      <c r="M81">
+        <v>10</v>
+      </c>
+      <c r="N81">
+        <v>0.0422</v>
+      </c>
+      <c r="O81">
+        <v>4.908</v>
+      </c>
+      <c r="P81" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R81" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S81" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>LEG078818L</v>
+      </c>
+      <c r="B82" t="str">
+        <v>3414971578036</v>
+      </c>
+      <c r="C82" t="str">
+        <v>MOSAIC PLAQUE 8M BLANC</v>
+      </c>
+      <c r="D82" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E82" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F82" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G82" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H82" t="str">
+        <v>078818L</v>
+      </c>
+      <c r="I82" t="str">
+        <v>MOSAIC PLAQUE 8M BLANC</v>
+      </c>
+      <c r="J82">
+        <v>5.5505</v>
+      </c>
+      <c r="K82">
+        <v>100</v>
+      </c>
+      <c r="L82">
+        <v>4000</v>
+      </c>
+      <c r="M82">
+        <v>10</v>
+      </c>
+      <c r="N82">
+        <v>0.0414</v>
+      </c>
+      <c r="O82">
+        <v>3.798</v>
+      </c>
+      <c r="P82" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R82" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S82" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>LEG080268</v>
+      </c>
+      <c r="B83" t="str">
+        <v>3245060802684</v>
+      </c>
+      <c r="C83" t="str">
+        <v>SUPPORT BATIBOX 2X10 MODULES</v>
+      </c>
+      <c r="D83" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E83" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F83" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G83" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H83" t="str">
+        <v>080268</v>
+      </c>
+      <c r="I83" t="str">
+        <v>SUPPORT BATIBOX 2X10 MODULES</v>
+      </c>
+      <c r="J83">
+        <v>14.1018</v>
+      </c>
+      <c r="K83">
+        <v>15</v>
+      </c>
+      <c r="L83">
+        <v>210</v>
+      </c>
+      <c r="M83">
+        <v>5</v>
+      </c>
+      <c r="N83">
+        <v>0.0145</v>
+      </c>
+      <c r="O83">
+        <v>4.683</v>
+      </c>
+      <c r="P83" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R83" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S83" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>LEG089700</v>
+      </c>
+      <c r="B84" t="str">
+        <v>3245060897000</v>
+      </c>
+      <c r="C84" t="str">
+        <v>PLATINE SOL CARRE INOX BROSSE</v>
+      </c>
+      <c r="D84" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E84" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F84" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G84" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H84" t="str">
+        <v>089700</v>
+      </c>
+      <c r="I84" t="str">
+        <v>PLATINE SOL CARRE INOX BROSSE</v>
+      </c>
+      <c r="J84">
+        <v>31.3446</v>
+      </c>
+      <c r="K84">
+        <v>30</v>
+      </c>
+      <c r="L84">
+        <v>180</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>0.0283</v>
+      </c>
+      <c r="O84">
+        <v>4.314</v>
+      </c>
+      <c r="P84" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R84" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S84" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>LEG078802L</v>
+      </c>
+      <c r="B85" t="str">
+        <v>3414971577756</v>
+      </c>
+      <c r="C85" t="str">
+        <v>MOSAIC PLAQUE 2M BLANC</v>
+      </c>
+      <c r="D85" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E85" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F85" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G85" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H85" t="str">
+        <v>078802L</v>
+      </c>
+      <c r="I85" t="str">
+        <v>MOSAIC PLAQUE 2M BLANC</v>
+      </c>
+      <c r="J85">
+        <v>1.2865</v>
+      </c>
+      <c r="K85">
+        <v>10</v>
+      </c>
+      <c r="L85">
+        <v>200</v>
+      </c>
+      <c r="M85">
+        <v>10</v>
+      </c>
+      <c r="N85">
+        <v>0.0009</v>
+      </c>
+      <c r="O85">
+        <v>0.179</v>
+      </c>
+      <c r="P85" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q85" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R85" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S85" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>LEG433000</v>
+      </c>
+      <c r="B86" t="str">
+        <v>3414971980280</v>
+      </c>
+      <c r="C86" t="str">
+        <v>CHASSIS POUR COFFRET 400X300</v>
+      </c>
+      <c r="D86" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E86" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F86" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G86" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H86" t="str">
+        <v>433000</v>
+      </c>
+      <c r="I86" t="str">
+        <v>CHASSIS POUR COFFRET 400X300</v>
+      </c>
+      <c r="J86">
+        <v>89.604</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>64</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0.0074</v>
+      </c>
+      <c r="O86">
+        <v>2.3</v>
+      </c>
+      <c r="P86" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R86" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S86" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>LEG077153L</v>
+      </c>
+      <c r="B87" t="str">
+        <v>3414971576568</v>
+      </c>
+      <c r="C87" t="str">
+        <v>MOSAIC 3X2P+T LINK FB DET SFC</v>
+      </c>
+      <c r="D87" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E87" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F87" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G87" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H87" t="str">
+        <v>077153L</v>
+      </c>
+      <c r="I87" t="str">
+        <v>MOSAIC 3X2P+T LINK FB DET SFC</v>
+      </c>
+      <c r="J87">
+        <v>17.4616</v>
+      </c>
+      <c r="K87">
+        <v>60</v>
+      </c>
+      <c r="L87">
+        <v>360</v>
+      </c>
+      <c r="M87">
+        <v>10</v>
+      </c>
+      <c r="N87">
+        <v>0.0306</v>
+      </c>
+      <c r="O87">
+        <v>8.008</v>
+      </c>
+      <c r="P87" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R87" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S87" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>LEG024212</v>
+      </c>
+      <c r="B88" t="str">
+        <v>3245060242121</v>
+      </c>
+      <c r="C88" t="str">
+        <v>OSMOZ BOITIER P TO D40 RG FR  1NF</v>
+      </c>
+      <c r="D88" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E88" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F88" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G88" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H88" t="str">
+        <v>024212</v>
+      </c>
+      <c r="I88" t="str">
+        <v>OSMOZ BOITIER P TO D40 RG FR</v>
+      </c>
+      <c r="J88">
+        <v>27.1846</v>
+      </c>
+      <c r="K88">
+        <v>12</v>
+      </c>
+      <c r="L88">
+        <v>120</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>0.0152</v>
+      </c>
+      <c r="O88">
+        <v>2.484</v>
+      </c>
+      <c r="P88" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R88" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S88" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>LEG075613</v>
+      </c>
+      <c r="B89" t="str">
+        <v>3245060756130</v>
+      </c>
+      <c r="C89" t="str">
+        <v>EMBOUT GLT MOSAIC 50X130</v>
+      </c>
+      <c r="D89" t="str">
+        <v>CABLES ET CONDUITS</v>
+      </c>
+      <c r="E89" t="str">
+        <v>A2</v>
+      </c>
+      <c r="F89" t="str">
+        <v>CONDUITS ET GAINES</v>
+      </c>
+      <c r="G89" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H89" t="str">
+        <v>075613</v>
+      </c>
+      <c r="I89" t="str">
+        <v>EMBOUT GLT MOSAIC 50X130</v>
+      </c>
+      <c r="J89">
+        <v>1.9687</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89">
+        <v>25</v>
+      </c>
+      <c r="M89">
+        <v>5</v>
+      </c>
+      <c r="N89">
+        <v>0.0056</v>
+      </c>
+      <c r="O89">
+        <v>0.346</v>
+      </c>
+      <c r="P89" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>PAL251</v>
+      </c>
+      <c r="R89" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S89" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>LEG005104</v>
+      </c>
+      <c r="B90" t="str">
+        <v>3245060051044</v>
+      </c>
+      <c r="C90" t="str">
+        <v>ENCASTREMENT TABLEAU 2 RANGEES</v>
+      </c>
+      <c r="D90" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E90" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F90" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G90" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H90" t="str">
+        <v>005104</v>
+      </c>
+      <c r="I90" t="str">
+        <v>ENCASTREMENT TABLEAU 2 RANGEES</v>
+      </c>
+      <c r="J90">
+        <v>40.3998</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>36</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>0.0306</v>
+      </c>
+      <c r="O90">
+        <v>2.463</v>
+      </c>
+      <c r="P90" t="str">
+        <v>8</v>
+      </c>
+      <c r="Q90" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R90" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S90" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>LEG433005</v>
+      </c>
+      <c r="B91" t="str">
+        <v>3414971980334</v>
+      </c>
+      <c r="C91" t="str">
+        <v>CHASSIS POUR COFFRET 800X600</v>
+      </c>
+      <c r="D91" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E91" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F91" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G91" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H91" t="str">
+        <v>433005</v>
+      </c>
+      <c r="I91" t="str">
+        <v>CHASSIS POUR COFFRET 800X600</v>
+      </c>
+      <c r="J91">
+        <v>205.599</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>12</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>0.0231</v>
+      </c>
+      <c r="O91">
+        <v>6.065</v>
+      </c>
+      <c r="P91" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R91" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S91" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>LEG035502</v>
+      </c>
+      <c r="B92" t="str">
+        <v>3245060355029</v>
+      </c>
+      <c r="C92" t="str">
+        <v>COFFRET ATLANTIC 400X300X200</v>
+      </c>
+      <c r="D92" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E92" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F92" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G92" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H92" t="str">
+        <v>035502</v>
+      </c>
+      <c r="I92" t="str">
+        <v>COFFRET ATLANTIC 400X300X200</v>
+      </c>
+      <c r="J92">
+        <v>141.0656</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>45</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>0.0345</v>
+      </c>
+      <c r="O92">
+        <v>6.824</v>
+      </c>
+      <c r="P92" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R92" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S92" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>LEG035503</v>
+      </c>
+      <c r="B93" t="str">
+        <v>3245060355036</v>
+      </c>
+      <c r="C93" t="str">
+        <v>COFFRET ATLANTIC 500X400X200</v>
+      </c>
+      <c r="D93" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E93" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F93" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G93" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H93" t="str">
+        <v>035503</v>
+      </c>
+      <c r="I93" t="str">
+        <v>COFFRET ATLANTIC 500X400X200</v>
+      </c>
+      <c r="J93">
+        <v>176.0512</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>30</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>0.0558</v>
+      </c>
+      <c r="O93">
+        <v>9.38</v>
+      </c>
+      <c r="P93" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R93" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S93" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>LEG035522</v>
+      </c>
+      <c r="B94" t="str">
+        <v>3245060355227</v>
+      </c>
+      <c r="C94" t="str">
+        <v>COFFRET ATLANTIC 700X500X300</v>
+      </c>
+      <c r="D94" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E94" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F94" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G94" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H94" t="str">
+        <v>035522</v>
+      </c>
+      <c r="I94" t="str">
+        <v>COFFRET ATLANTIC 700X500X300</v>
+      </c>
+      <c r="J94">
+        <v>368.22</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>6</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>0.1332</v>
+      </c>
+      <c r="O94">
+        <v>16.628</v>
+      </c>
+      <c r="P94" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R94" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S94" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>LEG036250</v>
+      </c>
+      <c r="B95" t="str">
+        <v>3245060362508</v>
+      </c>
+      <c r="C95" t="str">
+        <v>COFFRET MARINA 300X200X160</v>
+      </c>
+      <c r="D95" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E95" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F95" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G95" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H95" t="str">
+        <v>036250</v>
+      </c>
+      <c r="I95" t="str">
+        <v>COFFRET MARINA 300X200X160</v>
+      </c>
+      <c r="J95">
+        <v>99.237</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>100</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>0.0136</v>
+      </c>
+      <c r="O95">
+        <v>1.981</v>
+      </c>
+      <c r="P95" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R95" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S95" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>LEG036015</v>
+      </c>
+      <c r="B96" t="str">
+        <v>3245060360153</v>
+      </c>
+      <c r="C96" t="str">
+        <v>PLAQUE MONTAGE 500X400</v>
+      </c>
+      <c r="D96" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E96" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F96" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G96" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H96" t="str">
+        <v>036015</v>
+      </c>
+      <c r="I96" t="str">
+        <v>PLAQUE MONTAGE 500X400</v>
+      </c>
+      <c r="J96">
+        <v>53.2896</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>132</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>0.0027</v>
+      </c>
+      <c r="O96">
+        <v>1.015</v>
+      </c>
+      <c r="P96" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R96" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S96" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>LEG036016</v>
+      </c>
+      <c r="B97" t="str">
+        <v>3245060360160</v>
+      </c>
+      <c r="C97" t="str">
+        <v>PLAQUE MONTAGE 600X400</v>
+      </c>
+      <c r="D97" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E97" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F97" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G97" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H97" t="str">
+        <v>036016</v>
+      </c>
+      <c r="I97" t="str">
+        <v>PLAQUE MONTAGE 600X400</v>
+      </c>
+      <c r="J97">
+        <v>62.4</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>110</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>0.0034</v>
+      </c>
+      <c r="O97">
+        <v>1.207</v>
+      </c>
+      <c r="P97" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R97" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S97" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>LEG036018</v>
+      </c>
+      <c r="B98" t="str">
+        <v>3245060360184</v>
+      </c>
+      <c r="C98" t="str">
+        <v>PLAQUE MONTAGE 700X500</v>
+      </c>
+      <c r="D98" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E98" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F98" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G98" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H98" t="str">
+        <v>036018</v>
+      </c>
+      <c r="I98" t="str">
+        <v>PLAQUE MONTAGE 700X500</v>
+      </c>
+      <c r="J98">
+        <v>89.6272</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>50</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>0.0077</v>
+      </c>
+      <c r="O98">
+        <v>2.324</v>
+      </c>
+      <c r="P98" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R98" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S98" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>LEG036021</v>
+      </c>
+      <c r="B99" t="str">
+        <v>3245060360214</v>
+      </c>
+      <c r="C99" t="str">
+        <v>PLAQUE MONTAGE 1000X800</v>
+      </c>
+      <c r="D99" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E99" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F99" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G99" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H99" t="str">
+        <v>036021</v>
+      </c>
+      <c r="I99" t="str">
+        <v>PLAQUE MONTAGE 1000X800</v>
+      </c>
+      <c r="J99">
+        <v>180.2632</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>0.0255</v>
+      </c>
+      <c r="O99">
+        <v>5.6</v>
+      </c>
+      <c r="P99" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R99" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S99" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>LEG036019</v>
+      </c>
+      <c r="B100" t="str">
+        <v>3245060360191</v>
+      </c>
+      <c r="C100" t="str">
+        <v>PLAQUE MONTAGE 800X600</v>
+      </c>
+      <c r="D100" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E100" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F100" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G100" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H100" t="str">
+        <v>036019</v>
+      </c>
+      <c r="I100" t="str">
+        <v>PLAQUE MONTAGE 800X600</v>
+      </c>
+      <c r="J100">
+        <v>133.692</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>50</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>0.0095</v>
+      </c>
+      <c r="O100">
+        <v>3.2</v>
+      </c>
+      <c r="P100" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R100" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S100" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>LEG036154</v>
+      </c>
+      <c r="B101" t="str">
+        <v>3245060361549</v>
+      </c>
+      <c r="C101" t="str">
+        <v>JEU 2 MONTANTS PR COF/700</v>
+      </c>
+      <c r="D101" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E101" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F101" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G101" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H101" t="str">
+        <v>036154</v>
+      </c>
+      <c r="I101" t="str">
+        <v>JEU 2 MONTANTS PR COF/700</v>
+      </c>
+      <c r="J101">
+        <v>33.8523</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101">
+        <v>260</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="N101">
+        <v>0.001</v>
+      </c>
+      <c r="O101">
+        <v>4.383</v>
+      </c>
+      <c r="P101" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R101" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S101" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>LEG035512</v>
+      </c>
+      <c r="B102" t="str">
+        <v>3245060355128</v>
+      </c>
+      <c r="C102" t="str">
+        <v>COFFRET ATLANTIC 700X500X250</v>
+      </c>
+      <c r="D102" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E102" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F102" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G102" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H102" t="str">
+        <v>035512</v>
+      </c>
+      <c r="I102" t="str">
+        <v>COFFRET ATLANTIC 700X500X250</v>
+      </c>
+      <c r="J102">
+        <v>279.8848</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>6</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0.1142</v>
+      </c>
+      <c r="O102">
+        <v>15.05</v>
+      </c>
+      <c r="P102" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R102" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S102" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>LEG401804</v>
+      </c>
+      <c r="B103" t="str">
+        <v>3245064018043</v>
+      </c>
+      <c r="C103" t="str">
+        <v>COFFRET XL3 XL3 160 COMPLET   ISOLANT 4R</v>
+      </c>
+      <c r="D103" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E103" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F103" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G103" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H103" t="str">
+        <v>401804</v>
+      </c>
+      <c r="I103" t="str">
+        <v>COFFRET XL3 XL3 160 COMPLET</v>
+      </c>
+      <c r="J103">
+        <v>207.8336</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>18</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0.0594</v>
+      </c>
+      <c r="O103">
+        <v>9.375</v>
+      </c>
+      <c r="P103" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R103" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S103" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>LEG030095</v>
+      </c>
+      <c r="B104" t="str">
+        <v>3245060300951</v>
+      </c>
+      <c r="C104" t="str">
+        <v>GTL DRIVIA CORNET FINITION    GOULOT/PLAFOND</v>
+      </c>
+      <c r="D104" t="str">
+        <v>CABLES ET CONDUITS</v>
+      </c>
+      <c r="E104" t="str">
+        <v>A2</v>
+      </c>
+      <c r="F104" t="str">
+        <v>CONDUITS ET GAINES</v>
+      </c>
+      <c r="G104" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H104" t="str">
+        <v>030095</v>
+      </c>
+      <c r="I104" t="str">
+        <v>GTL DRIVIA CORNET FINITION</v>
+      </c>
+      <c r="J104">
+        <v>34.1316</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>90</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>0.0179</v>
+      </c>
+      <c r="O104">
+        <v>0.984</v>
+      </c>
+      <c r="P104" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R104" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S104" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>LEG646340</v>
+      </c>
+      <c r="B105" t="str">
+        <v>3245066463407</v>
+      </c>
+      <c r="C105" t="str">
+        <v>LINKEO JEU 2 MONTANTS 19P 24U LINK</v>
+      </c>
+      <c r="D105" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E105" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F105" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G105" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H105" t="str">
+        <v>646340</v>
+      </c>
+      <c r="I105" t="str">
+        <v>LINKEO JEU 2 MONTANTS 19P 24U</v>
+      </c>
+      <c r="J105">
+        <v>30.6204</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>30</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>0.0028</v>
+      </c>
+      <c r="O105">
+        <v>2.155</v>
+      </c>
+      <c r="P105" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R105" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S105" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>LEG036156</v>
+      </c>
+      <c r="B106" t="str">
+        <v>3245060361563</v>
+      </c>
+      <c r="C106" t="str">
+        <v>JEU 2 MONTANTS P/COF 1000</v>
+      </c>
+      <c r="D106" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E106" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F106" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G106" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H106" t="str">
+        <v>036156</v>
+      </c>
+      <c r="I106" t="str">
+        <v>JEU 2 MONTANTS P/COF 1000</v>
+      </c>
+      <c r="J106">
+        <v>44.1085</v>
+      </c>
+      <c r="K106">
+        <v>5</v>
+      </c>
+      <c r="L106">
+        <v>260</v>
+      </c>
+      <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="N106">
+        <v>0.0023</v>
+      </c>
+      <c r="O106">
+        <v>6.6</v>
+      </c>
+      <c r="P106" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="str">
+        <v>PAL252</v>
+      </c>
+      <c r="R106" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S106" t="str">
+        <v>B20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>LEG646200</v>
+      </c>
+      <c r="B107" t="str">
+        <v>3414970967770</v>
+      </c>
+      <c r="C107" t="str">
+        <v>VDI COFFRET LINKEO 19P 6U PROF450MM</v>
+      </c>
+      <c r="D107" t="str">
+        <v>COMMUNICATIONS ET SECURITES</v>
+      </c>
+      <c r="E107" t="str">
+        <v>C3</v>
+      </c>
+      <c r="F107" t="str">
+        <v>VDI</v>
+      </c>
+      <c r="G107" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H107" t="str">
+        <v>646200</v>
+      </c>
+      <c r="I107" t="str">
+        <v>VDI COFFRET LINKEO 19P 6U PROF</v>
+      </c>
+      <c r="J107">
+        <v>137.484</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>9</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0.1097</v>
+      </c>
+      <c r="O107">
+        <v>19.2</v>
+      </c>
+      <c r="P107" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="str">
+        <v>PAL253</v>
+      </c>
+      <c r="R107" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S107" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>LEG646212</v>
+      </c>
+      <c r="B108" t="str">
+        <v>3414970967855</v>
+      </c>
+      <c r="C108" t="str">
+        <v>COFFRET LINKEO 19P 12U PROF   600MM</v>
+      </c>
+      <c r="D108" t="str">
+        <v>COMMUNICATIONS ET SECURITES</v>
+      </c>
+      <c r="E108" t="str">
+        <v>C3</v>
+      </c>
+      <c r="F108" t="str">
+        <v>VDI</v>
+      </c>
+      <c r="G108" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H108" t="str">
+        <v>646212</v>
+      </c>
+      <c r="I108" t="str">
+        <v>COFFRET LINKEO 19P 12U PROF</v>
+      </c>
+      <c r="J108">
+        <v>195.909</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>0.256</v>
+      </c>
+      <c r="O108">
+        <v>32</v>
+      </c>
+      <c r="P108" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="str">
+        <v>PAL253</v>
+      </c>
+      <c r="R108" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S108" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>LEG646210</v>
+      </c>
+      <c r="B109" t="str">
+        <v>3414970967831</v>
+      </c>
+      <c r="C109" t="str">
+        <v>VDI COFFRET LINKEO 19P 6U PROF600MM</v>
+      </c>
+      <c r="D109" t="str">
+        <v>COMMUNICATIONS ET SECURITES</v>
+      </c>
+      <c r="E109" t="str">
+        <v>C3</v>
+      </c>
+      <c r="F109" t="str">
+        <v>VDI</v>
+      </c>
+      <c r="G109" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H109" t="str">
+        <v>646210</v>
+      </c>
+      <c r="I109" t="str">
+        <v>VDI COFFRET LINKEO 19P 6U PROF</v>
+      </c>
+      <c r="J109">
+        <v>156.75</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>0.1548</v>
+      </c>
+      <c r="O109">
+        <v>24</v>
+      </c>
+      <c r="P109" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="str">
+        <v>PAL253</v>
+      </c>
+      <c r="R109" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S109" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>LEG646222</v>
+      </c>
+      <c r="B110" t="str">
+        <v>3414970967909</v>
+      </c>
+      <c r="C110" t="str">
+        <v>VDI COFFRET LINKEO 19P 12U    PIVOTANT</v>
+      </c>
+      <c r="D110" t="str">
+        <v>COMMUNICATIONS ET SECURITES</v>
+      </c>
+      <c r="E110" t="str">
+        <v>C3</v>
+      </c>
+      <c r="F110" t="str">
+        <v>VDI</v>
+      </c>
+      <c r="G110" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H110" t="str">
+        <v>646222</v>
+      </c>
+      <c r="I110" t="str">
+        <v>VDI COFFRET LINKEO 19P 12U</v>
+      </c>
+      <c r="J110">
+        <v>338.922</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>0.256</v>
+      </c>
+      <c r="O110">
+        <v>38</v>
+      </c>
+      <c r="P110" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q110" t="str">
+        <v>PAL253</v>
+      </c>
+      <c r="R110" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S110" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>LEG092012</v>
+      </c>
+      <c r="B111" t="str">
+        <v>3245060920128</v>
+      </c>
+      <c r="C111" t="str">
+        <v>PLEXO BOITE DERIVATION        80X80+EMBOUTS</v>
+      </c>
+      <c r="D111" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E111" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F111" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G111" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H111" t="str">
+        <v>092012</v>
+      </c>
+      <c r="I111" t="str">
+        <v>PLEXO BOITE DERIVATION</v>
+      </c>
+      <c r="J111">
+        <v>1.0681</v>
+      </c>
+      <c r="K111">
+        <v>120</v>
+      </c>
+      <c r="L111">
+        <v>3000</v>
+      </c>
+      <c r="M111">
+        <v>120</v>
+      </c>
+      <c r="N111">
+        <v>0.0684</v>
+      </c>
+      <c r="O111">
+        <v>9.29</v>
+      </c>
+      <c r="P111" t="str">
+        <v>90</v>
+      </c>
+      <c r="Q111" t="str">
+        <v>PAL255</v>
+      </c>
+      <c r="R111" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S111" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>LEG092001</v>
+      </c>
+      <c r="B112" t="str">
+        <v>3245060920012</v>
+      </c>
+      <c r="C112" t="str">
+        <v>PLEXO BOITE DERIVATION D.60</v>
+      </c>
+      <c r="D112" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E112" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F112" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G112" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H112" t="str">
+        <v>092001</v>
+      </c>
+      <c r="I112" t="str">
+        <v>PLEXO BOITE DERIVATION D.60</v>
+      </c>
+      <c r="J112">
+        <v>0.9304</v>
+      </c>
+      <c r="K112">
+        <v>100</v>
+      </c>
+      <c r="L112">
+        <v>6000</v>
+      </c>
+      <c r="M112">
+        <v>100</v>
+      </c>
+      <c r="N112">
+        <v>0.0324</v>
+      </c>
+      <c r="O112">
+        <v>4.382</v>
+      </c>
+      <c r="P112" t="str">
+        <v>40</v>
+      </c>
+      <c r="Q112" t="str">
+        <v>PAL255</v>
+      </c>
+      <c r="R112" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S112" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>LEG092005</v>
+      </c>
+      <c r="B113" t="str">
+        <v>3245060920050</v>
+      </c>
+      <c r="C113" t="str">
+        <v>PLEXO BOITE DERIVATION 65X65</v>
+      </c>
+      <c r="D113" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E113" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F113" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G113" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H113" t="str">
+        <v>092005</v>
+      </c>
+      <c r="I113" t="str">
+        <v>PLEXO BOITE DERIVATION 65X65</v>
+      </c>
+      <c r="J113">
+        <v>1.0369</v>
+      </c>
+      <c r="K113">
+        <v>100</v>
+      </c>
+      <c r="L113">
+        <v>4000</v>
+      </c>
+      <c r="M113">
+        <v>100</v>
+      </c>
+      <c r="N113">
+        <v>0.0414</v>
+      </c>
+      <c r="O113">
+        <v>5.99</v>
+      </c>
+      <c r="P113" t="str">
+        <v>90</v>
+      </c>
+      <c r="Q113" t="str">
+        <v>PAL255</v>
+      </c>
+      <c r="R113" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S113" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>LEG032754</v>
+      </c>
+      <c r="B114" t="str">
+        <v>3245060327545</v>
+      </c>
+      <c r="C114" t="str">
+        <v>LCS3 CABLE C6 U/UTP 4P LSOH   305M</v>
+      </c>
+      <c r="D114" t="str">
+        <v>CABLES ET CONDUITS</v>
+      </c>
+      <c r="E114" t="str">
+        <v>A1</v>
+      </c>
+      <c r="F114" t="str">
+        <v>CABLES COURANTS FAIBLES</v>
+      </c>
+      <c r="G114" t="str">
+        <v>METRE</v>
+      </c>
+      <c r="H114" t="str">
+        <v>032754</v>
+      </c>
+      <c r="I114" t="str">
+        <v>LCS3 CABLE C6 U/UTP 4P LSOH</v>
+      </c>
+      <c r="J114">
+        <v>0.3149</v>
+      </c>
+      <c r="K114">
+        <v>305</v>
+      </c>
+      <c r="L114">
+        <v>6100</v>
+      </c>
+      <c r="M114">
+        <v>305</v>
+      </c>
+      <c r="N114">
+        <v>0.0421</v>
+      </c>
+      <c r="O114">
+        <v>13.204</v>
+      </c>
+      <c r="P114" t="str">
+        <v>610</v>
+      </c>
+      <c r="Q114" t="str">
+        <v>PAL255</v>
+      </c>
+      <c r="R114" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S114" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>LEG646203</v>
+      </c>
+      <c r="B115" t="str">
+        <v>3414970967800</v>
+      </c>
+      <c r="C115" t="str">
+        <v>VDI COFFRET LINKEO 19P 15U    PROF 450MM</v>
+      </c>
+      <c r="D115" t="str">
+        <v>COMMUNICATIONS ET SECURITES</v>
+      </c>
+      <c r="E115" t="str">
+        <v>C3</v>
+      </c>
+      <c r="F115" t="str">
+        <v>VDI</v>
+      </c>
+      <c r="G115" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H115" t="str">
+        <v>646203</v>
+      </c>
+      <c r="I115" t="str">
+        <v>VDI COFFRET LINKEO 19P 15U</v>
+      </c>
+      <c r="J115">
+        <v>193.857</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>6</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0.2193</v>
+      </c>
+      <c r="O115">
+        <v>26.75</v>
+      </c>
+      <c r="P115" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="str">
+        <v>PAL255</v>
+      </c>
+      <c r="R115" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S115" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>LEG646230</v>
+      </c>
+      <c r="B116" t="str">
+        <v>3414970967947</v>
+      </c>
+      <c r="C116" t="str">
+        <v>VDI COFFRET LINKEO 10P 6U PROF300MM</v>
+      </c>
+      <c r="D116" t="str">
+        <v>COMMUNICATIONS ET SECURITES</v>
+      </c>
+      <c r="E116" t="str">
+        <v>C3</v>
+      </c>
+      <c r="F116" t="str">
+        <v>VDI</v>
+      </c>
+      <c r="G116" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H116" t="str">
+        <v>646230</v>
+      </c>
+      <c r="I116" t="str">
+        <v>VDI COFFRET LINKEO 10P 6U PROF</v>
+      </c>
+      <c r="J116">
+        <v>130.587</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>18</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>0.0681</v>
+      </c>
+      <c r="O116">
+        <v>9.595</v>
+      </c>
+      <c r="P116" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q116" t="str">
+        <v>PAL255</v>
+      </c>
+      <c r="R116" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S116" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>LEG036261</v>
+      </c>
+      <c r="B117" t="str">
+        <v>3245060362614</v>
+      </c>
+      <c r="C117" t="str">
+        <v>COFFRET MARINA 800X600X300</v>
+      </c>
+      <c r="D117" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E117" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F117" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G117" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H117" t="str">
+        <v>036261</v>
+      </c>
+      <c r="I117" t="str">
+        <v>COFFRET MARINA 800X600X300</v>
+      </c>
+      <c r="J117">
+        <v>349.6584</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>6</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>0.1778</v>
+      </c>
+      <c r="O117">
+        <v>16.1</v>
+      </c>
+      <c r="P117" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q117" t="str">
+        <v>PAL255</v>
+      </c>
+      <c r="R117" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S117" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>LEG036251</v>
+      </c>
+      <c r="B118" t="str">
+        <v>3245060362515</v>
+      </c>
+      <c r="C118" t="str">
+        <v>COFFRET MARINA 400X300X200</v>
+      </c>
+      <c r="D118" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E118" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F118" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G118" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H118" t="str">
+        <v>036251</v>
+      </c>
+      <c r="I118" t="str">
+        <v>COFFRET MARINA 400X300X200</v>
+      </c>
+      <c r="J118">
+        <v>125.8296</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>50</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0.0318</v>
+      </c>
+      <c r="O118">
+        <v>4</v>
+      </c>
+      <c r="P118" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q118" t="str">
+        <v>PAL255</v>
+      </c>
+      <c r="R118" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S118" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>LEG036252</v>
+      </c>
+      <c r="B119" t="str">
+        <v>3245060362522</v>
+      </c>
+      <c r="C119" t="str">
+        <v>COFFRET MARINA 500X400X200</v>
+      </c>
+      <c r="D119" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E119" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F119" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G119" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H119" t="str">
+        <v>036252</v>
+      </c>
+      <c r="I119" t="str">
+        <v>COFFRET MARINA 500X400X200</v>
+      </c>
+      <c r="J119">
+        <v>156.3952</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>30</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>0.051</v>
+      </c>
+      <c r="O119">
+        <v>5.7</v>
+      </c>
+      <c r="P119" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q119" t="str">
+        <v>PAL255</v>
+      </c>
+      <c r="R119" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S119" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>LEG005121</v>
+      </c>
+      <c r="B120" t="str">
+        <v>3245060051211</v>
+      </c>
+      <c r="C120" t="str">
+        <v>PORTE FACADE KIT MULTI USAGE</v>
+      </c>
+      <c r="D120" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E120" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F120" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G120" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H120" t="str">
+        <v>005121</v>
+      </c>
+      <c r="I120" t="str">
+        <v>PORTE FACADE KIT MULTI USAGE</v>
+      </c>
+      <c r="J120">
+        <v>55.5256</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>24</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>0.0094</v>
+      </c>
+      <c r="O120">
+        <v>1.185</v>
+      </c>
+      <c r="P120" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q120" t="str">
+        <v>PAL255</v>
+      </c>
+      <c r="R120" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S120" t="str">
+        <v>B30</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>LEG646202</v>
+      </c>
+      <c r="B121" t="str">
+        <v>3414970967794</v>
+      </c>
+      <c r="C121" t="str">
+        <v>COFFRET LINKEO 19P 12U PROF   450MM</v>
+      </c>
+      <c r="D121" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E121" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F121" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G121" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H121" t="str">
+        <v>646202</v>
+      </c>
+      <c r="I121" t="str">
+        <v>COFFRET LINKEO 19P 12U PROF</v>
+      </c>
+      <c r="J121">
+        <v>171.855</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>6</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>0.1754</v>
+      </c>
+      <c r="O121">
+        <v>26</v>
+      </c>
+      <c r="P121" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q121" t="str">
+        <v>PAL254</v>
+      </c>
+      <c r="R121" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S121" t="str">
+        <v>B40</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>LEG646201</v>
+      </c>
+      <c r="B122" t="str">
+        <v>3414970967787</v>
+      </c>
+      <c r="C122" t="str">
+        <v>VDI COFFRET LINKEO 19P 9U PROF450MM</v>
+      </c>
+      <c r="D122" t="str">
+        <v>COMMUNICATIONS ET SECURITES</v>
+      </c>
+      <c r="E122" t="str">
+        <v>C3</v>
+      </c>
+      <c r="F122" t="str">
+        <v>VDI</v>
+      </c>
+      <c r="G122" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H122" t="str">
+        <v>646201</v>
+      </c>
+      <c r="I122" t="str">
+        <v>VDI COFFRET LINKEO 19P 9U PROF</v>
+      </c>
+      <c r="J122">
+        <v>154.698</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>9</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>0.1387</v>
+      </c>
+      <c r="O122">
+        <v>23</v>
+      </c>
+      <c r="P122" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q122" t="str">
+        <v>PAL254</v>
+      </c>
+      <c r="R122" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S122" t="str">
+        <v>B40</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>LEG646213</v>
+      </c>
+      <c r="B123" t="str">
+        <v>3414970967862</v>
+      </c>
+      <c r="C123" t="str">
+        <v>COFFRET LINKEO 19P 15U PROF   600MM</v>
+      </c>
+      <c r="D123" t="str">
+        <v>APPAREILLAGE &amp; COURANT FORT</v>
+      </c>
+      <c r="E123" t="str">
+        <v>B0</v>
+      </c>
+      <c r="F123" t="str">
+        <v>APPAREILLAGES ELECTRIQUE</v>
+      </c>
+      <c r="G123" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H123" t="str">
+        <v>646213</v>
+      </c>
+      <c r="I123" t="str">
+        <v>COFFRET LINKEO 19P 15U PROF</v>
+      </c>
+      <c r="J123">
+        <v>220.989</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>0.3776</v>
+      </c>
+      <c r="O123">
+        <v>36.2</v>
+      </c>
+      <c r="P123" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q123" t="str">
+        <v>PAL254</v>
+      </c>
+      <c r="R123" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S123" t="str">
+        <v>B40</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>LEG446043</v>
+      </c>
+      <c r="B124" t="str">
+        <v>3414972561884</v>
+      </c>
+      <c r="C124" t="str">
+        <v>PACK TERTIAIRE PROXIMITE 19"</v>
+      </c>
+      <c r="D124" t="str">
+        <v>COMMUNICATIONS ET SECURITES</v>
+      </c>
+      <c r="E124" t="str">
+        <v>C3</v>
+      </c>
+      <c r="F124" t="str">
+        <v>VDI</v>
+      </c>
+      <c r="G124" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H124" t="str">
+        <v>446043</v>
+      </c>
+      <c r="I124" t="str">
+        <v>PACK TERTIAIRE PROXIMITE 19"</v>
+      </c>
+      <c r="J124">
+        <v>368.277</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>6</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>0.1343</v>
+      </c>
+      <c r="O124">
+        <v>22.723</v>
+      </c>
+      <c r="P124" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q124" t="str">
+        <v>PAL254</v>
+      </c>
+      <c r="R124" t="str">
+        <v>LEGRAND</v>
+      </c>
+      <c r="S124" t="str">
+        <v>B40</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
         <v>TAL6351407</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B125" t="str">
         <v>3513140004724</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C125" t="str">
         <v>PACK TYXIA 501 PACK           VA-ET-VIENT SS FIL NEUTRE</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D125" t="str">
         <v>COMMUNICATIONS ET SECURITES</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E125" t="str">
         <v>C1</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F125" t="str">
         <v>ALARMES</v>
       </c>
-      <c r="G16" t="str">
-        <v>ALARMES INTRUSION-INCENDI</v>
-      </c>
-      <c r="H16" t="str">
+      <c r="G125" t="str">
         <v>PACK - LOT - KI</v>
       </c>
-      <c r="I16" t="str">
+      <c r="H125" t="str">
         <v>6351407</v>
       </c>
-      <c r="J16" t="str">
+      <c r="I125" t="str">
         <v>PACK TYXIA 501</v>
       </c>
-      <c r="K16">
+      <c r="J125">
         <v>55.575</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
         <v>0.0002</v>
       </c>
-      <c r="P16">
+      <c r="O125">
         <v>0.05</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="P125" t="str">
         <v>10</v>
       </c>
-      <c r="R16" t="str">
-        <v>PAL-203</v>
-      </c>
-      <c r="T16" t="str">
-        <v>A15</v>
-      </c>
-      <c r="U16" t="str">
+      <c r="Q125" t="str">
+        <v>PAL256</v>
+      </c>
+      <c r="R125" t="str">
         <v>DELTA DORE SA</v>
+      </c>
+      <c r="S125" t="str">
+        <v>B40</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S125"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/Stock/EPR_S01_Stock.xlsx
+++ b/backend/data/Stock/EPR_S01_Stock.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S125"/>
+  <dimension ref="A1:S126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7720,49 +7720,49 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>TAL6351407</v>
+        <v>LDV708198</v>
       </c>
       <c r="B125" t="str">
-        <v>3513140004724</v>
+        <v>4058075708198</v>
       </c>
       <c r="C125" t="str">
-        <v>PACK TYXIA 501 PACK           VA-ET-VIENT SS FIL NEUTRE</v>
+        <v>HB COMP 166W/840 20000LM 120D</v>
       </c>
       <c r="D125" t="str">
-        <v>COMMUNICATIONS ET SECURITES</v>
+        <v>ECLAIRAGE</v>
       </c>
       <c r="E125" t="str">
-        <v>C1</v>
+        <v>D0</v>
       </c>
       <c r="F125" t="str">
-        <v>ALARMES</v>
+        <v>APPAREIL D'ECLAIRAGE</v>
       </c>
       <c r="G125" t="str">
-        <v>PACK - LOT - KI</v>
+        <v>UNITE</v>
       </c>
       <c r="H125" t="str">
-        <v>6351407</v>
+        <v>4058075708198</v>
       </c>
       <c r="I125" t="str">
-        <v>PACK TYXIA 501</v>
+        <v>HB COMP 166W/840 20000LM 120D</v>
       </c>
       <c r="J125">
-        <v>55.575</v>
+        <v>87.55</v>
       </c>
       <c r="K125">
         <v>1</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="M125">
         <v>1</v>
       </c>
       <c r="N125">
-        <v>0.0002</v>
+        <v>0.0067</v>
       </c>
       <c r="O125">
-        <v>0.05</v>
+        <v>1.76</v>
       </c>
       <c r="P125" t="str">
         <v>10</v>
@@ -7771,15 +7771,74 @@
         <v>PAL256</v>
       </c>
       <c r="R125" t="str">
-        <v>DELTA DORE SA</v>
+        <v>OSRAM-LEDVANCE</v>
       </c>
       <c r="S125" t="str">
-        <v>B40</v>
+        <v>A35</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>LDV187315</v>
+      </c>
+      <c r="B126" t="str">
+        <v>4099854187315</v>
+      </c>
+      <c r="C126" t="str">
+        <v>PANEL ECO 600 36W/4000K UGR19</v>
+      </c>
+      <c r="D126" t="str">
+        <v>ECLAIRAGE</v>
+      </c>
+      <c r="E126" t="str">
+        <v>D0</v>
+      </c>
+      <c r="F126" t="str">
+        <v>APPAREIL D'ECLAIRAGE</v>
+      </c>
+      <c r="G126" t="str">
+        <v>UNITE</v>
+      </c>
+      <c r="H126" t="str">
+        <v>4099854187315</v>
+      </c>
+      <c r="I126" t="str">
+        <v>PANEL ECO 600 36W/4000K UGR19</v>
+      </c>
+      <c r="J126">
+        <v>17.24</v>
+      </c>
+      <c r="K126">
+        <v>6</v>
+      </c>
+      <c r="L126">
+        <v>96</v>
+      </c>
+      <c r="M126">
+        <v>6</v>
+      </c>
+      <c r="N126">
+        <v>0.0981</v>
+      </c>
+      <c r="O126">
+        <v>12.88</v>
+      </c>
+      <c r="P126" t="str">
+        <v>54</v>
+      </c>
+      <c r="Q126" t="str">
+        <v>PAL256</v>
+      </c>
+      <c r="R126" t="str">
+        <v>OSRAM-LEDVANCE</v>
+      </c>
+      <c r="S126" t="str">
+        <v>A35</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S125"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S126"/>
   </ignoredErrors>
 </worksheet>
 </file>